--- a/INTC.xlsx
+++ b/INTC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayanpussurmanov/Finance/financial_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1239279E-DF79-A748-AD2E-D18A2E83742C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3328B22E-668F-164C-8EEF-D4553172B39F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{FFDE8198-0A80-C04D-964E-60CE6D882A3C}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" activeTab="1" xr2:uid="{FFDE8198-0A80-C04D-964E-60CE6D882A3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>Price</t>
   </si>
@@ -58,13 +58,113 @@
   </si>
   <si>
     <t>Main</t>
+  </si>
+  <si>
+    <t>Q123</t>
+  </si>
+  <si>
+    <t>Q223</t>
+  </si>
+  <si>
+    <t>Q323</t>
+  </si>
+  <si>
+    <t>Q423</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>COGS</t>
+  </si>
+  <si>
+    <t>Gross profit</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <t>MG&amp;A</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>OPEX</t>
+  </si>
+  <si>
+    <t>OPINC</t>
+  </si>
+  <si>
+    <t>Other (interest, gain)</t>
+  </si>
+  <si>
+    <t>Pretax</t>
+  </si>
+  <si>
+    <t>Tax</t>
+  </si>
+  <si>
+    <t>less net</t>
+  </si>
+  <si>
+    <t>Net income</t>
+  </si>
+  <si>
+    <t>EPS</t>
+  </si>
+  <si>
+    <t>Revenue growth %</t>
+  </si>
+  <si>
+    <t>Gross margin %</t>
+  </si>
+  <si>
+    <t>Tax rate %</t>
+  </si>
+  <si>
+    <t>Profit margin</t>
+  </si>
+  <si>
+    <t>R&amp;D growth%</t>
+  </si>
+  <si>
+    <t>Employees</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>discount</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>price target</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="#,##0.000000000"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -77,6 +177,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -92,6 +199,12 @@
       <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -111,19 +224,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="4">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -459,20 +582,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A25CBCAB-95B0-CA45-9960-54718EF86824}">
-  <dimension ref="K2:L7"/>
+  <dimension ref="K2:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="11" width="10.83203125" style="1"/>
+    <col min="1" max="10" width="10.83203125" style="1"/>
+    <col min="11" max="11" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="11:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K2" s="1" t="s">
         <v>0</v>
       </c>
@@ -480,15 +604,18 @@
         <v>20.12</v>
       </c>
     </row>
-    <row r="3" spans="11:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="3">
         <v>4313</v>
       </c>
-    </row>
-    <row r="4" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="M3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K4" s="1" t="s">
         <v>2</v>
       </c>
@@ -497,7 +624,7 @@
         <v>86777.56</v>
       </c>
     </row>
-    <row r="5" spans="11:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K5" s="1" t="s">
         <v>3</v>
       </c>
@@ -506,7 +633,7 @@
         <v>36148</v>
       </c>
     </row>
-    <row r="6" spans="11:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K6" s="1" t="s">
         <v>4</v>
       </c>
@@ -515,7 +642,7 @@
         <v>50182</v>
       </c>
     </row>
-    <row r="7" spans="11:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K7" s="1" t="s">
         <v>5</v>
       </c>
@@ -523,6 +650,43 @@
         <f>L4-L5+L6</f>
         <v>100811.56</v>
       </c>
+    </row>
+    <row r="10" spans="11:13" x14ac:dyDescent="0.2">
+      <c r="K10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="11" spans="11:13" x14ac:dyDescent="0.2">
+      <c r="K11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" s="7">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="12" spans="11:13" x14ac:dyDescent="0.2">
+      <c r="K12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L12" s="3">
+        <f>NPV(L11,Model!R17:BU17)+L5-L6</f>
+        <v>188254.81990780434</v>
+      </c>
+    </row>
+    <row r="13" spans="11:13" x14ac:dyDescent="0.2">
+      <c r="K13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L13" s="8">
+        <f>L12/L3</f>
+        <v>43.648230908371048</v>
+      </c>
+    </row>
+    <row r="15" spans="11:13" x14ac:dyDescent="0.2">
+      <c r="L15" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -531,23 +695,1385 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C483DC-5572-5441-9E7B-FD798376FD96}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:BU33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="25" width="10.83203125" style="1"/>
+    <col min="26" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="1">
+        <v>2019</v>
+      </c>
+      <c r="M4" s="1">
+        <v>2020</v>
+      </c>
+      <c r="N4" s="1">
+        <v>2021</v>
+      </c>
+      <c r="O4" s="1">
+        <v>2022</v>
+      </c>
+      <c r="P4" s="1">
+        <v>2023</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>2024</v>
+      </c>
+      <c r="R4" s="1">
+        <v>2025</v>
+      </c>
+      <c r="S4" s="1">
+        <v>2026</v>
+      </c>
+      <c r="T4" s="1">
+        <v>2027</v>
+      </c>
+      <c r="U4" s="1">
+        <v>2028</v>
+      </c>
+      <c r="V4" s="1">
+        <v>2029</v>
+      </c>
+      <c r="W4" s="1">
+        <v>2030</v>
+      </c>
+      <c r="X4" s="1">
+        <v>2031</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4">
+        <v>11715</v>
+      </c>
+      <c r="D5" s="4">
+        <v>12949</v>
+      </c>
+      <c r="E5" s="4">
+        <v>14158</v>
+      </c>
+      <c r="F5" s="4">
+        <v>15406</v>
+      </c>
+      <c r="G5" s="4">
+        <v>12724</v>
+      </c>
+      <c r="H5" s="4">
+        <v>12833</v>
+      </c>
+      <c r="I5" s="4">
+        <v>13284</v>
+      </c>
+      <c r="J5" s="4">
+        <v>13830</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4">
+        <v>79024</v>
+      </c>
+      <c r="O5" s="4">
+        <v>63054</v>
+      </c>
+      <c r="P5" s="4">
+        <v>54228</v>
+      </c>
+      <c r="Q5" s="4">
+        <f>SUM(G5:J5)</f>
+        <v>52671</v>
+      </c>
+      <c r="R5" s="4">
+        <f>Q5+Q5*R21</f>
+        <v>55831.26</v>
+      </c>
+      <c r="S5" s="4">
+        <f t="shared" ref="S5:Y5" si="0">R5+R5*S21</f>
+        <v>57506.197800000002</v>
+      </c>
+      <c r="T5" s="4">
+        <f t="shared" si="0"/>
+        <v>59231.383734000003</v>
+      </c>
+      <c r="U5" s="4">
+        <f t="shared" si="0"/>
+        <v>61008.325246020002</v>
+      </c>
+      <c r="V5" s="4">
+        <f t="shared" si="0"/>
+        <v>62838.575003400605</v>
+      </c>
+      <c r="W5" s="4">
+        <f t="shared" si="0"/>
+        <v>64723.732253502625</v>
+      </c>
+      <c r="X5" s="4">
+        <f t="shared" si="0"/>
+        <v>66665.444221107697</v>
+      </c>
+      <c r="Y5" s="4">
+        <f t="shared" si="0"/>
+        <v>68665.407547740921</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4">
+        <v>7707</v>
+      </c>
+      <c r="D6" s="4">
+        <v>8311</v>
+      </c>
+      <c r="E6" s="4">
+        <v>8140</v>
+      </c>
+      <c r="F6" s="4">
+        <v>8359</v>
+      </c>
+      <c r="G6" s="4">
+        <v>7507</v>
+      </c>
+      <c r="H6" s="4">
+        <v>8286</v>
+      </c>
+      <c r="I6" s="4">
+        <v>11287</v>
+      </c>
+      <c r="J6" s="4">
+        <f>J5-J7</f>
+        <v>11755.5</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4">
+        <v>35209</v>
+      </c>
+      <c r="O6" s="4">
+        <v>36188</v>
+      </c>
+      <c r="P6" s="4">
+        <v>32517</v>
+      </c>
+      <c r="Q6" s="4">
+        <f t="shared" ref="Q6:Q16" si="1">SUM(G6:J6)</f>
+        <v>38835.5</v>
+      </c>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4">
+        <v>4008</v>
+      </c>
+      <c r="D7" s="4">
+        <v>4638</v>
+      </c>
+      <c r="E7" s="4">
+        <v>6018</v>
+      </c>
+      <c r="F7" s="4">
+        <v>7047</v>
+      </c>
+      <c r="G7" s="4">
+        <v>5217</v>
+      </c>
+      <c r="H7" s="4">
+        <v>4547</v>
+      </c>
+      <c r="I7" s="4">
+        <f>I5-I6</f>
+        <v>1997</v>
+      </c>
+      <c r="J7" s="4">
+        <f>J5*0.15</f>
+        <v>2074.5</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4">
+        <v>43815</v>
+      </c>
+      <c r="O7" s="4">
+        <v>26866</v>
+      </c>
+      <c r="P7" s="4">
+        <v>21711</v>
+      </c>
+      <c r="Q7" s="4">
+        <f>Q5-Q6</f>
+        <v>13835.5</v>
+      </c>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="4">
+        <v>4109</v>
+      </c>
+      <c r="D8" s="4">
+        <v>4080</v>
+      </c>
+      <c r="E8" s="4">
+        <v>3870</v>
+      </c>
+      <c r="F8" s="4">
+        <v>3987</v>
+      </c>
+      <c r="G8" s="4">
+        <v>4382</v>
+      </c>
+      <c r="H8" s="4">
+        <v>4239</v>
+      </c>
+      <c r="I8" s="4">
+        <v>4049</v>
+      </c>
+      <c r="J8" s="4">
+        <f>I8</f>
+        <v>4049</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4">
+        <v>15190</v>
+      </c>
+      <c r="O8" s="4">
+        <v>17528</v>
+      </c>
+      <c r="P8" s="4">
+        <v>16046</v>
+      </c>
+      <c r="Q8" s="4">
+        <f t="shared" si="1"/>
+        <v>16719</v>
+      </c>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1303</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1374</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1340</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1617</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1556</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1329</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1383</v>
+      </c>
+      <c r="J9" s="4">
+        <f>I9</f>
+        <v>1383</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4">
+        <v>6543</v>
+      </c>
+      <c r="O9" s="4">
+        <v>7002</v>
+      </c>
+      <c r="P9" s="4">
+        <v>5634</v>
+      </c>
+      <c r="Q9" s="4">
+        <f t="shared" si="1"/>
+        <v>5651</v>
+      </c>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1">
+        <v>64</v>
+      </c>
+      <c r="D10" s="1">
+        <v>200</v>
+      </c>
+      <c r="E10" s="1">
+        <v>816</v>
+      </c>
+      <c r="F10" s="4">
+        <v>-1142</v>
+      </c>
+      <c r="G10" s="1">
+        <v>348</v>
+      </c>
+      <c r="H10" s="1">
+        <v>943</v>
+      </c>
+      <c r="I10" s="4">
+        <v>5622</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4">
+        <v>2626</v>
+      </c>
+      <c r="O10" s="4">
+        <v>2</v>
+      </c>
+      <c r="P10" s="4">
+        <v>-62</v>
+      </c>
+      <c r="Q10" s="4">
+        <f t="shared" si="1"/>
+        <v>6913</v>
+      </c>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="4">
+        <v>5476</v>
+      </c>
+      <c r="D11" s="4">
+        <v>5654</v>
+      </c>
+      <c r="E11" s="4">
+        <v>6026</v>
+      </c>
+      <c r="F11" s="4">
+        <v>4462</v>
+      </c>
+      <c r="G11" s="4">
+        <v>6286</v>
+      </c>
+      <c r="H11" s="4">
+        <v>6511</v>
+      </c>
+      <c r="I11" s="4">
+        <f>SUM(I8:I10)</f>
+        <v>11054</v>
+      </c>
+      <c r="J11" s="4">
+        <f>SUM(J8:J10)</f>
+        <v>5432</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4">
+        <v>0</v>
+      </c>
+      <c r="N11" s="4">
+        <v>24359</v>
+      </c>
+      <c r="O11" s="4">
+        <v>24532</v>
+      </c>
+      <c r="P11" s="4">
+        <v>21618</v>
+      </c>
+      <c r="Q11" s="4">
+        <f t="shared" si="1"/>
+        <v>29283</v>
+      </c>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="4">
+        <v>-1468</v>
+      </c>
+      <c r="D12" s="4">
+        <v>-1016</v>
+      </c>
+      <c r="E12" s="1">
+        <v>-8</v>
+      </c>
+      <c r="F12" s="4">
+        <v>2585</v>
+      </c>
+      <c r="G12" s="4">
+        <v>-1069</v>
+      </c>
+      <c r="H12" s="4">
+        <v>-1964</v>
+      </c>
+      <c r="I12" s="4">
+        <f>I7-I11</f>
+        <v>-9057</v>
+      </c>
+      <c r="J12" s="4">
+        <f>J7-J11</f>
+        <v>-3357.5</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4">
+        <v>19456</v>
+      </c>
+      <c r="O12" s="4">
+        <v>2334</v>
+      </c>
+      <c r="P12" s="4">
+        <v>93</v>
+      </c>
+      <c r="Q12" s="4">
+        <f t="shared" si="1"/>
+        <v>-15447.5</v>
+      </c>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="1">
+        <v>310</v>
+      </c>
+      <c r="D13" s="1">
+        <v>200</v>
+      </c>
+      <c r="E13" s="1">
+        <v>-44</v>
+      </c>
+      <c r="F13" s="1">
+        <v>203</v>
+      </c>
+      <c r="G13" s="1">
+        <v>350</v>
+      </c>
+      <c r="H13" s="1">
+        <v>-40</v>
+      </c>
+      <c r="I13" s="4">
+        <f>-159+130</f>
+        <v>-29</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4">
+        <v>2247</v>
+      </c>
+      <c r="O13" s="4">
+        <v>5434</v>
+      </c>
+      <c r="P13" s="4">
+        <v>669</v>
+      </c>
+      <c r="Q13" s="4">
+        <f t="shared" si="1"/>
+        <v>281</v>
+      </c>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="4">
+        <v>-1158</v>
+      </c>
+      <c r="D14" s="1">
+        <v>-816</v>
+      </c>
+      <c r="E14" s="1">
+        <v>-52</v>
+      </c>
+      <c r="F14" s="4">
+        <v>2788</v>
+      </c>
+      <c r="G14" s="1">
+        <v>-719</v>
+      </c>
+      <c r="H14" s="4">
+        <v>-2004</v>
+      </c>
+      <c r="I14" s="4">
+        <f>I12+I13</f>
+        <v>-9086</v>
+      </c>
+      <c r="J14" s="4">
+        <f>J12+J13</f>
+        <v>-3357.5</v>
+      </c>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
+        <v>21703</v>
+      </c>
+      <c r="O14" s="4">
+        <v>7768</v>
+      </c>
+      <c r="P14" s="4">
+        <v>762</v>
+      </c>
+      <c r="Q14" s="4">
+        <f t="shared" si="1"/>
+        <v>-15166.5</v>
+      </c>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1610</v>
+      </c>
+      <c r="D15" s="4">
+        <v>-2289</v>
+      </c>
+      <c r="E15" s="1">
+        <v>-362</v>
+      </c>
+      <c r="F15" s="1">
+        <v>128</v>
+      </c>
+      <c r="G15" s="1">
+        <v>-282</v>
+      </c>
+      <c r="H15" s="1">
+        <v>-350</v>
+      </c>
+      <c r="I15" s="4">
+        <v>7903</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4">
+        <v>1835</v>
+      </c>
+      <c r="O15" s="4">
+        <v>-249</v>
+      </c>
+      <c r="P15" s="4">
+        <v>-913</v>
+      </c>
+      <c r="Q15" s="4">
+        <f t="shared" si="1"/>
+        <v>7271</v>
+      </c>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="1">
+        <v>-10</v>
+      </c>
+      <c r="D16" s="1">
+        <v>-8</v>
+      </c>
+      <c r="E16" s="1">
+        <v>13</v>
+      </c>
+      <c r="F16" s="1">
+        <v>-9</v>
+      </c>
+      <c r="G16" s="1">
+        <v>-56</v>
+      </c>
+      <c r="H16" s="1">
+        <v>-44</v>
+      </c>
+      <c r="I16" s="4">
+        <v>-350</v>
+      </c>
+      <c r="J16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4">
+        <v>0</v>
+      </c>
+      <c r="O16" s="4">
+        <v>3</v>
+      </c>
+      <c r="P16" s="4">
+        <v>-14</v>
+      </c>
+      <c r="Q16" s="4">
+        <f t="shared" si="1"/>
+        <v>-450</v>
+      </c>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+    </row>
+    <row r="17" spans="2:73" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="4">
+        <v>-2758</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1481</v>
+      </c>
+      <c r="E17" s="1">
+        <v>297</v>
+      </c>
+      <c r="F17" s="4">
+        <v>2669</v>
+      </c>
+      <c r="G17" s="1">
+        <v>-381</v>
+      </c>
+      <c r="H17" s="4">
+        <v>-1610</v>
+      </c>
+      <c r="I17" s="4">
+        <f>I14-I15-I16</f>
+        <v>-16639</v>
+      </c>
+      <c r="J17" s="4">
+        <f>J14-J15-J16</f>
+        <v>-3357.5</v>
+      </c>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4">
+        <v>0</v>
+      </c>
+      <c r="N17" s="4">
+        <v>19868</v>
+      </c>
+      <c r="O17" s="4">
+        <v>8014</v>
+      </c>
+      <c r="P17" s="4">
+        <v>1689</v>
+      </c>
+      <c r="Q17" s="4">
+        <f>SUM(G17:J17)</f>
+        <v>-21987.5</v>
+      </c>
+      <c r="R17" s="4">
+        <f>R5*R24</f>
+        <v>0</v>
+      </c>
+      <c r="S17" s="4">
+        <f t="shared" ref="S17:Y17" si="2">S5*S24</f>
+        <v>4025.4338460000004</v>
+      </c>
+      <c r="T17" s="4">
+        <f t="shared" si="2"/>
+        <v>5923.138373400001</v>
+      </c>
+      <c r="U17" s="4">
+        <f t="shared" si="2"/>
+        <v>9151.2487869029992</v>
+      </c>
+      <c r="V17" s="4">
+        <f t="shared" si="2"/>
+        <v>15709.643750850151</v>
+      </c>
+      <c r="W17" s="4">
+        <f t="shared" si="2"/>
+        <v>16180.933063375656</v>
+      </c>
+      <c r="X17" s="4">
+        <f t="shared" si="2"/>
+        <v>16666.361055276924</v>
+      </c>
+      <c r="Y17" s="4">
+        <f t="shared" si="2"/>
+        <v>17166.35188693523</v>
+      </c>
+      <c r="Z17" s="4">
+        <f>Y17*(1+Main!$L$10)</f>
+        <v>17509.678924673935</v>
+      </c>
+      <c r="AA17" s="4">
+        <f>Z17*(1+Main!$L$10)</f>
+        <v>17859.872503167415</v>
+      </c>
+      <c r="AB17" s="4">
+        <f>AA17*(1+Main!$L$10)</f>
+        <v>18217.069953230763</v>
+      </c>
+      <c r="AC17" s="4">
+        <f>AB17*(1+Main!$L$10)</f>
+        <v>18581.411352295378</v>
+      </c>
+      <c r="AD17" s="4">
+        <f>AC17*(1+Main!$L$10)</f>
+        <v>18953.039579341286</v>
+      </c>
+      <c r="AE17" s="4">
+        <f>AD17*(1+Main!$L$10)</f>
+        <v>19332.100370928114</v>
+      </c>
+      <c r="AF17" s="4">
+        <f>AE17*(1+Main!$L$10)</f>
+        <v>19718.742378346677</v>
+      </c>
+      <c r="AG17" s="4">
+        <f>AF17*(1+Main!$L$10)</f>
+        <v>20113.117225913611</v>
+      </c>
+      <c r="AH17" s="4">
+        <f>AG17*(1+Main!$L$10)</f>
+        <v>20515.379570431884</v>
+      </c>
+      <c r="AI17" s="4">
+        <f>AH17*(1+Main!$L$10)</f>
+        <v>20925.68716184052</v>
+      </c>
+      <c r="AJ17" s="4">
+        <f>AI17*(1+Main!$L$10)</f>
+        <v>21344.20090507733</v>
+      </c>
+      <c r="AK17" s="4">
+        <f>AJ17*(1+Main!$L$10)</f>
+        <v>21771.084923178878</v>
+      </c>
+      <c r="AL17" s="4">
+        <f>AK17*(1+Main!$L$10)</f>
+        <v>22206.506621642457</v>
+      </c>
+      <c r="AM17" s="4">
+        <f>AL17*(1+Main!$L$10)</f>
+        <v>22650.636754075305</v>
+      </c>
+      <c r="AN17" s="4">
+        <f>AM17*(1+Main!$L$10)</f>
+        <v>23103.649489156811</v>
+      </c>
+      <c r="AO17" s="4">
+        <f>AN17*(1+Main!$L$10)</f>
+        <v>23565.722478939948</v>
+      </c>
+      <c r="AP17" s="4">
+        <f>AO17*(1+Main!$L$10)</f>
+        <v>24037.036928518748</v>
+      </c>
+      <c r="AQ17" s="4">
+        <f>AP17*(1+Main!$L$10)</f>
+        <v>24517.777667089122</v>
+      </c>
+      <c r="AR17" s="4">
+        <f>AQ17*(1+Main!$L$10)</f>
+        <v>25008.133220430904</v>
+      </c>
+      <c r="AS17" s="4">
+        <f>AR17*(1+Main!$L$10)</f>
+        <v>25508.295884839521</v>
+      </c>
+      <c r="AT17" s="4">
+        <f>AS17*(1+Main!$L$10)</f>
+        <v>26018.461802536312</v>
+      </c>
+      <c r="AU17" s="4">
+        <f>AT17*(1+Main!$L$10)</f>
+        <v>26538.831038587039</v>
+      </c>
+      <c r="AV17" s="4">
+        <f>AU17*(1+Main!$L$10)</f>
+        <v>27069.607659358779</v>
+      </c>
+      <c r="AW17" s="4">
+        <f>AV17*(1+Main!$L$10)</f>
+        <v>27610.999812545953</v>
+      </c>
+      <c r="AX17" s="4">
+        <f>AW17*(1+Main!$L$10)</f>
+        <v>28163.219808796872</v>
+      </c>
+      <c r="AY17" s="4">
+        <f>AX17*(1+Main!$L$10)</f>
+        <v>28726.48420497281</v>
+      </c>
+      <c r="AZ17" s="4">
+        <f>AY17*(1+Main!$L$10)</f>
+        <v>29301.013889072266</v>
+      </c>
+      <c r="BA17" s="4">
+        <f>AZ17*(1+Main!$L$10)</f>
+        <v>29887.034166853711</v>
+      </c>
+      <c r="BB17" s="4">
+        <f>BA17*(1+Main!$L$10)</f>
+        <v>30484.774850190784</v>
+      </c>
+      <c r="BC17" s="4">
+        <f>BB17*(1+Main!$L$10)</f>
+        <v>31094.470347194601</v>
+      </c>
+      <c r="BD17" s="4">
+        <f>BC17*(1+Main!$L$10)</f>
+        <v>31716.359754138495</v>
+      </c>
+      <c r="BE17" s="4">
+        <f>BD17*(1+Main!$L$10)</f>
+        <v>32350.686949221265</v>
+      </c>
+      <c r="BF17" s="4">
+        <f>BE17*(1+Main!$L$10)</f>
+        <v>32997.700688205688</v>
+      </c>
+      <c r="BG17" s="4">
+        <f>BF17*(1+Main!$L$10)</f>
+        <v>33657.654701969805</v>
+      </c>
+      <c r="BH17" s="4">
+        <f>BG17*(1+Main!$L$10)</f>
+        <v>34330.807796009198</v>
+      </c>
+      <c r="BI17" s="4">
+        <f>BH17*(1+Main!$L$10)</f>
+        <v>35017.423951929384</v>
+      </c>
+      <c r="BJ17" s="4">
+        <f>BI17*(1+Main!$L$10)</f>
+        <v>35717.772430967976</v>
+      </c>
+      <c r="BK17" s="4">
+        <f>BJ17*(1+Main!$L$10)</f>
+        <v>36432.127879587337</v>
+      </c>
+      <c r="BL17" s="4">
+        <f>BK17*(1+Main!$L$10)</f>
+        <v>37160.770437179082</v>
+      </c>
+      <c r="BM17" s="4">
+        <f>BL17*(1+Main!$L$10)</f>
+        <v>37903.985845922667</v>
+      </c>
+      <c r="BN17" s="4">
+        <f>BM17*(1+Main!$L$10)</f>
+        <v>38662.065562841119</v>
+      </c>
+      <c r="BO17" s="4">
+        <f>BN17*(1+Main!$L$10)</f>
+        <v>39435.306874097943</v>
+      </c>
+      <c r="BP17" s="4">
+        <f>BO17*(1+Main!$L$10)</f>
+        <v>40224.013011579904</v>
+      </c>
+      <c r="BQ17" s="4">
+        <f>BP17*(1+Main!$L$10)</f>
+        <v>41028.493271811501</v>
+      </c>
+      <c r="BR17" s="4">
+        <f>BQ17*(1+Main!$L$10)</f>
+        <v>41849.063137247729</v>
+      </c>
+      <c r="BS17" s="4">
+        <f>BR17*(1+Main!$L$10)</f>
+        <v>42686.044399992687</v>
+      </c>
+      <c r="BT17" s="4">
+        <f>BS17*(1+Main!$L$10)</f>
+        <v>43539.765287992544</v>
+      </c>
+      <c r="BU17" s="4">
+        <f>BT17*(1+Main!$L$10)</f>
+        <v>44410.560593752394</v>
+      </c>
+    </row>
+    <row r="18" spans="2:73" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="1">
+        <v>-0.66</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="E18" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="G18" s="1">
+        <v>-0.09</v>
+      </c>
+      <c r="H18" s="1">
+        <v>-0.38</v>
+      </c>
+      <c r="I18" s="3">
+        <f>I17/I19</f>
+        <v>-3.8767474370922645</v>
+      </c>
+      <c r="J18" s="3">
+        <f>J17/J19</f>
+        <v>-0.78226933830382106</v>
+      </c>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N18" s="3">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="O18" s="3">
+        <v>1.94</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="Q18" s="3">
+        <f>Q17/Q19</f>
+        <v>-5.1229030754892824</v>
+      </c>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+    </row>
+    <row r="19" spans="2:73" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4">
+        <v>4154</v>
+      </c>
+      <c r="D19" s="4">
+        <v>4196</v>
+      </c>
+      <c r="E19" s="4">
+        <v>4229</v>
+      </c>
+      <c r="F19" s="4">
+        <v>4212</v>
+      </c>
+      <c r="G19" s="4">
+        <v>4242</v>
+      </c>
+      <c r="H19" s="4">
+        <v>4267</v>
+      </c>
+      <c r="I19" s="4">
+        <v>4292</v>
+      </c>
+      <c r="J19" s="4">
+        <f>I19</f>
+        <v>4292</v>
+      </c>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4">
+        <v>4090</v>
+      </c>
+      <c r="O19" s="4">
+        <v>4123</v>
+      </c>
+      <c r="P19" s="4">
+        <v>4212</v>
+      </c>
+      <c r="Q19" s="4">
+        <f>J19</f>
+        <v>4292</v>
+      </c>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+    </row>
+    <row r="21" spans="2:73" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="6">
+        <f t="shared" ref="G21:H21" si="3">G5/C5-1</f>
+        <v>8.6128894579598825E-2</v>
+      </c>
+      <c r="H21" s="6">
+        <f t="shared" si="3"/>
+        <v>-8.9582207120241231E-3</v>
+      </c>
+      <c r="I21" s="6">
+        <f>I5/E5-1</f>
+        <v>-6.1731883034326862E-2</v>
+      </c>
+      <c r="M21" s="1" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N21" s="1" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O21" s="5">
+        <v>-0.2021</v>
+      </c>
+      <c r="P21" s="5">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="Q21" s="6">
+        <f>Q5/P5-1</f>
+        <v>-2.8712104447886744E-2</v>
+      </c>
+      <c r="R21" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="S21" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="T21" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="U21" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="V21" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="W21" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="X21" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="Y21" s="7">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="22" spans="2:73" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="6">
+        <f t="shared" ref="C22:F22" si="4">C7/C5</f>
+        <v>0.34212548015364919</v>
+      </c>
+      <c r="D22" s="6">
+        <f t="shared" si="4"/>
+        <v>0.35817437639972199</v>
+      </c>
+      <c r="E22" s="6">
+        <f t="shared" si="4"/>
+        <v>0.42506003672835146</v>
+      </c>
+      <c r="F22" s="6">
+        <f t="shared" si="4"/>
+        <v>0.45741918732961184</v>
+      </c>
+      <c r="G22" s="6">
+        <f t="shared" ref="G22:H22" si="5">G7/G5</f>
+        <v>0.41001257466205598</v>
+      </c>
+      <c r="H22" s="6">
+        <f t="shared" si="5"/>
+        <v>0.35432089145172602</v>
+      </c>
+      <c r="I22" s="6">
+        <f>I7/I5</f>
+        <v>0.15033122553447756</v>
+      </c>
+      <c r="M22" s="1" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N22" s="5">
+        <v>0.55449999999999999</v>
+      </c>
+      <c r="O22" s="5">
+        <v>0.42609999999999998</v>
+      </c>
+      <c r="P22" s="5">
+        <v>0.40039999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="2:73" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="6">
+        <f t="shared" ref="C23:G23" si="6">C15/C14</f>
+        <v>-1.390328151986183</v>
+      </c>
+      <c r="D23" s="6">
+        <f t="shared" si="6"/>
+        <v>2.8051470588235294</v>
+      </c>
+      <c r="E23" s="6">
+        <f t="shared" si="6"/>
+        <v>6.9615384615384617</v>
+      </c>
+      <c r="F23" s="6">
+        <f t="shared" si="6"/>
+        <v>4.5911047345767578E-2</v>
+      </c>
+      <c r="G23" s="6">
+        <f t="shared" si="6"/>
+        <v>0.39221140472878996</v>
+      </c>
+      <c r="H23" s="6">
+        <f>H15/H14</f>
+        <v>0.17465069860279442</v>
+      </c>
+      <c r="I23" s="6">
+        <f>I15/I14</f>
+        <v>-0.86979969183359018</v>
+      </c>
+      <c r="M23" s="1" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N23" s="5">
+        <v>8.4599999999999995E-2</v>
+      </c>
+      <c r="O23" s="5">
+        <v>-3.2099999999999997E-2</v>
+      </c>
+      <c r="P23" s="5">
+        <v>-1.1981999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="2:73" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="6">
+        <f t="shared" ref="C24:G24" si="7">C17/C5</f>
+        <v>-0.23542466922748612</v>
+      </c>
+      <c r="D24" s="6">
+        <f t="shared" si="7"/>
+        <v>0.114371766159549</v>
+      </c>
+      <c r="E24" s="6">
+        <f t="shared" si="7"/>
+        <v>2.097753920045204E-2</v>
+      </c>
+      <c r="F24" s="6">
+        <f t="shared" si="7"/>
+        <v>0.1732441905751006</v>
+      </c>
+      <c r="G24" s="6">
+        <f t="shared" si="7"/>
+        <v>-2.9943414020748193E-2</v>
+      </c>
+      <c r="H24" s="6">
+        <f>H17/H5</f>
+        <v>-0.12545780409880777</v>
+      </c>
+      <c r="I24" s="6">
+        <f>I17/I5</f>
+        <v>-1.2525594700391449</v>
+      </c>
+      <c r="M24" s="1" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N24" s="5">
+        <v>0.25140000000000001</v>
+      </c>
+      <c r="O24" s="5">
+        <v>0.12709999999999999</v>
+      </c>
+      <c r="P24" s="5">
+        <v>3.1099999999999999E-2</v>
+      </c>
+      <c r="R24" s="5">
+        <v>0</v>
+      </c>
+      <c r="S24" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="T24" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="U24" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="V24" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="W24" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="X24" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="Y24" s="5">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="25" spans="2:73" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M25" s="1" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N25" s="1" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O25" s="5">
+        <v>0.15390000000000001</v>
+      </c>
+      <c r="P25" s="5">
+        <v>-8.4599999999999995E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:73" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="2:73" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3"/>
+    </row>
+    <row r="32" spans="2:73" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3"/>
+    </row>
+    <row r="33" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{3B84CA85-6C8B-7746-B68E-BC1F1F5EC42A}"/>
   </hyperlinks>

--- a/INTC.xlsx
+++ b/INTC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayanpussurmanov/Finance/financial_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3328B22E-668F-164C-8EEF-D4553172B39F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63638256-CC28-F443-B761-4769CDCC31A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" activeTab="1" xr2:uid="{FFDE8198-0A80-C04D-964E-60CE6D882A3C}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{FFDE8198-0A80-C04D-964E-60CE6D882A3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -162,7 +162,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="#,##0.000000000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.000000000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -240,7 +240,7 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -259,10 +259,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -584,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A25CBCAB-95B0-CA45-9960-54718EF86824}">
   <dimension ref="K2:M15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -608,7 +604,7 @@
       <c r="K3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="4">
         <v>4313</v>
       </c>
       <c r="M3" s="1" t="s">
@@ -619,7 +615,7 @@
       <c r="K4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="4">
         <f>L2*L3</f>
         <v>86777.56</v>
       </c>
@@ -628,7 +624,7 @@
       <c r="K5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="4">
         <f>8785+15301+12062</f>
         <v>36148</v>
       </c>
@@ -637,7 +633,7 @@
       <c r="K6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="4">
         <f>46417+3765</f>
         <v>50182</v>
       </c>
@@ -646,7 +642,7 @@
       <c r="K7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="4">
         <f>L4-L5+L6</f>
         <v>100811.56</v>
       </c>
@@ -697,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C483DC-5572-5441-9E7B-FD798376FD96}">
   <dimension ref="A1:BU33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>

--- a/INTC.xlsx
+++ b/INTC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayanpussurmanov/Finance/financial_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63638256-CC28-F443-B761-4769CDCC31A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651D831E-6B18-634D-A681-D201996C1B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{FFDE8198-0A80-C04D-964E-60CE6D882A3C}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="14320" windowHeight="18380" activeTab="1" xr2:uid="{FFDE8198-0A80-C04D-964E-60CE6D882A3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>Price</t>
   </si>
@@ -102,9 +102,6 @@
     <t>OPINC</t>
   </si>
   <si>
-    <t>Other (interest, gain)</t>
-  </si>
-  <si>
     <t>Pretax</t>
   </si>
   <si>
@@ -120,21 +117,12 @@
     <t>EPS</t>
   </si>
   <si>
-    <t>Revenue growth %</t>
-  </si>
-  <si>
     <t>Gross margin %</t>
   </si>
   <si>
     <t>Tax rate %</t>
   </si>
   <si>
-    <t>Profit margin</t>
-  </si>
-  <si>
-    <t>R&amp;D growth%</t>
-  </si>
-  <si>
     <t>Employees</t>
   </si>
   <si>
@@ -154,17 +142,28 @@
   </si>
   <si>
     <t>price target</t>
+  </si>
+  <si>
+    <t>Gain on investment</t>
+  </si>
+  <si>
+    <t>Revenue y/y</t>
+  </si>
+  <si>
+    <t>R&amp;D y/y</t>
+  </si>
+  <si>
+    <t>Profit margin %</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="#,##0.000000000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -206,6 +205,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -230,7 +251,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
@@ -240,7 +261,14 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -578,20 +606,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A25CBCAB-95B0-CA45-9960-54718EF86824}">
-  <dimension ref="K2:M15"/>
+  <dimension ref="K1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="10" width="10.83203125" style="1"/>
     <col min="11" max="11" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="1"/>
+    <col min="12" max="13" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="11:13" x14ac:dyDescent="0.2">
+      <c r="M1" s="14">
+        <v>45676</v>
+      </c>
+    </row>
     <row r="2" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K2" s="1" t="s">
         <v>0</v>
@@ -608,7 +641,7 @@
         <v>4313</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="11:13" x14ac:dyDescent="0.2">
@@ -628,6 +661,9 @@
         <f>8785+15301+12062</f>
         <v>36148</v>
       </c>
+      <c r="M5" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="6" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K6" s="1" t="s">
@@ -637,6 +673,9 @@
         <f>46417+3765</f>
         <v>50182</v>
       </c>
+      <c r="M6" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K7" s="1" t="s">
@@ -649,7 +688,7 @@
     </row>
     <row r="10" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K10" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L10" s="7">
         <v>0.02</v>
@@ -657,32 +696,35 @@
     </row>
     <row r="11" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K11" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="L11" s="7">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="12" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K12" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L12" s="3">
-        <f>NPV(L11,Model!R17:BU17)+L5-L6</f>
-        <v>188254.81990780434</v>
+        <f>NPV(L11,Model!R18:BU18)+L5-L6</f>
+        <v>164735.87379865421</v>
       </c>
     </row>
     <row r="13" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K13" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="L13" s="8">
         <f>L12/L3</f>
-        <v>43.648230908371048</v>
+        <v>38.195194481487178</v>
       </c>
     </row>
     <row r="15" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="L15" s="9"/>
+      <c r="L15" s="5">
+        <f>L13/L2-1</f>
+        <v>0.89836950703216578</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -691,11 +733,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C483DC-5572-5441-9E7B-FD798376FD96}">
-  <dimension ref="A1:BU33"/>
+  <dimension ref="A1:BU34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R25" sqref="R25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -732,10 +774,10 @@
         <v>12</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L4" s="1">
         <v>2019</v>
@@ -780,80 +822,84 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="10">
         <v>11715</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="10">
         <v>12949</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="10">
         <v>14158</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="10">
         <v>15406</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="10">
         <v>12724</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="10">
         <v>12833</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="10">
         <v>13284</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="10">
         <v>13830</v>
       </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4">
+      <c r="L5" s="10">
+        <v>71965</v>
+      </c>
+      <c r="M5" s="10">
+        <v>77867</v>
+      </c>
+      <c r="N5" s="10">
         <v>79024</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="10">
         <v>63054</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="10">
         <v>54228</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="10">
         <f>SUM(G5:J5)</f>
         <v>52671</v>
       </c>
-      <c r="R5" s="4">
-        <f>Q5+Q5*R21</f>
+      <c r="R5" s="10">
+        <f>Q5+Q5*R22</f>
         <v>55831.26</v>
       </c>
-      <c r="S5" s="4">
-        <f t="shared" ref="S5:Y5" si="0">R5+R5*S21</f>
-        <v>57506.197800000002</v>
-      </c>
-      <c r="T5" s="4">
+      <c r="S5" s="10">
+        <f t="shared" ref="S5:Y5" si="0">R5+R5*S22</f>
+        <v>58622.823000000004</v>
+      </c>
+      <c r="T5" s="10">
         <f t="shared" si="0"/>
-        <v>59231.383734000003</v>
-      </c>
-      <c r="U5" s="4">
+        <v>60381.507690000006</v>
+      </c>
+      <c r="U5" s="10">
         <f t="shared" si="0"/>
-        <v>61008.325246020002</v>
-      </c>
-      <c r="V5" s="4">
+        <v>62192.952920700009</v>
+      </c>
+      <c r="V5" s="10">
         <f t="shared" si="0"/>
-        <v>62838.575003400605</v>
-      </c>
-      <c r="W5" s="4">
+        <v>64058.741508321007</v>
+      </c>
+      <c r="W5" s="10">
         <f t="shared" si="0"/>
-        <v>64723.732253502625</v>
-      </c>
-      <c r="X5" s="4">
+        <v>65980.503753570636</v>
+      </c>
+      <c r="X5" s="10">
         <f t="shared" si="0"/>
-        <v>66665.444221107697</v>
-      </c>
-      <c r="Y5" s="4">
+        <v>67959.918866177759</v>
+      </c>
+      <c r="Y5" s="10">
         <f t="shared" si="0"/>
-        <v>68665.407547740921</v>
+        <v>69998.716432163084</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
@@ -870,6 +916,7 @@
         <v>8140</v>
       </c>
       <c r="F6" s="4">
+        <f>P6-SUM(C6:E6)</f>
         <v>8359</v>
       </c>
       <c r="G6" s="4">
@@ -882,11 +929,14 @@
         <v>11287</v>
       </c>
       <c r="J6" s="4">
-        <f>J5-J7</f>
-        <v>11755.5</v>
-      </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
+        <v>10000</v>
+      </c>
+      <c r="L6" s="4">
+        <v>29825</v>
+      </c>
+      <c r="M6" s="4">
+        <v>34255</v>
+      </c>
       <c r="N6" s="4">
         <v>35209</v>
       </c>
@@ -897,8 +947,8 @@
         <v>32517</v>
       </c>
       <c r="Q6" s="4">
-        <f t="shared" ref="Q6:Q16" si="1">SUM(G6:J6)</f>
-        <v>38835.5</v>
+        <f t="shared" ref="Q6:Q17" si="1">SUM(G6:J6)</f>
+        <v>37080</v>
       </c>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
@@ -909,61 +959,68 @@
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="12">
         <v>4008</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="12">
         <v>4638</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="12">
         <v>6018</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="12">
         <v>7047</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="12">
         <v>5217</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="12">
         <v>4547</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="12">
         <f>I5-I6</f>
         <v>1997</v>
       </c>
-      <c r="J7" s="4">
-        <f>J5*0.15</f>
-        <v>2074.5</v>
-      </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4">
-        <v>0</v>
-      </c>
-      <c r="N7" s="4">
+      <c r="J7" s="12">
+        <f>J5-J6</f>
+        <v>3830</v>
+      </c>
+      <c r="L7" s="12">
+        <f>L5-L6</f>
+        <v>42140</v>
+      </c>
+      <c r="M7" s="12">
+        <f>M5-M6</f>
+        <v>43612</v>
+      </c>
+      <c r="N7" s="12">
+        <f t="shared" ref="N7:P7" si="2">N5-N6</f>
         <v>43815</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="12">
+        <f t="shared" si="2"/>
         <v>26866</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="12">
+        <f t="shared" si="2"/>
         <v>21711</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="12">
         <f>Q5-Q6</f>
-        <v>13835.5</v>
-      </c>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
+        <v>15591</v>
+      </c>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
@@ -979,6 +1036,7 @@
         <v>3870</v>
       </c>
       <c r="F8" s="4">
+        <f>P8-SUM(C8:E8)</f>
         <v>3987</v>
       </c>
       <c r="G8" s="4">
@@ -991,11 +1049,14 @@
         <v>4049</v>
       </c>
       <c r="J8" s="4">
-        <f>I8</f>
-        <v>4049</v>
-      </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
+        <v>3800</v>
+      </c>
+      <c r="L8" s="4">
+        <v>13362</v>
+      </c>
+      <c r="M8" s="4">
+        <v>13556</v>
+      </c>
       <c r="N8" s="4">
         <v>15190</v>
       </c>
@@ -1007,7 +1068,7 @@
       </c>
       <c r="Q8" s="4">
         <f t="shared" si="1"/>
-        <v>16719</v>
+        <v>16470</v>
       </c>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
@@ -1032,6 +1093,7 @@
         <v>1340</v>
       </c>
       <c r="F9" s="4">
+        <f>P9-SUM(C9:E9)</f>
         <v>1617</v>
       </c>
       <c r="G9" s="4">
@@ -1044,11 +1106,14 @@
         <v>1383</v>
       </c>
       <c r="J9" s="4">
-        <f>I9</f>
-        <v>1383</v>
-      </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
+        <v>1200</v>
+      </c>
+      <c r="L9" s="4">
+        <v>6350</v>
+      </c>
+      <c r="M9" s="4">
+        <v>6180</v>
+      </c>
       <c r="N9" s="4">
         <v>6543</v>
       </c>
@@ -1060,7 +1125,7 @@
       </c>
       <c r="Q9" s="4">
         <f t="shared" si="1"/>
-        <v>5651</v>
+        <v>5468</v>
       </c>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
@@ -1085,6 +1150,7 @@
         <v>816</v>
       </c>
       <c r="F10" s="4">
+        <f>P10-SUM(C10:E10)</f>
         <v>-1142</v>
       </c>
       <c r="G10" s="1">
@@ -1096,9 +1162,15 @@
       <c r="I10" s="4">
         <v>5622</v>
       </c>
-      <c r="J10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4">
+        <v>393</v>
+      </c>
+      <c r="M10" s="4">
+        <v>198</v>
+      </c>
       <c r="N10" s="4">
         <v>2626</v>
       </c>
@@ -1121,159 +1193,179 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B11" s="1" t="s">
+    <row r="11" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="12">
         <v>5476</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="12">
         <v>5654</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="12">
         <v>6026</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="12">
         <v>4462</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="12">
         <v>6286</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="12">
         <v>6511</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="12">
         <f>SUM(I8:I10)</f>
         <v>11054</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="12">
         <f>SUM(J8:J10)</f>
-        <v>5432</v>
-      </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4">
-        <v>0</v>
-      </c>
-      <c r="N11" s="4">
+        <v>5000</v>
+      </c>
+      <c r="L11" s="12">
+        <f>SUM(L8:L10)</f>
+        <v>20105</v>
+      </c>
+      <c r="M11" s="12">
+        <f t="shared" ref="M11:N11" si="3">SUM(M8:M10)</f>
+        <v>19934</v>
+      </c>
+      <c r="N11" s="12">
+        <f t="shared" si="3"/>
         <v>24359</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="12">
+        <f>SUM(O8:O10)</f>
         <v>24532</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="12">
+        <f t="shared" ref="P11" si="4">SUM(P8:P10)</f>
         <v>21618</v>
       </c>
-      <c r="Q11" s="4">
-        <f t="shared" si="1"/>
-        <v>29283</v>
-      </c>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
+      <c r="Q11" s="12">
+        <f t="shared" ref="Q11" si="5">SUM(Q8:Q10)</f>
+        <v>28851</v>
+      </c>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+    </row>
+    <row r="12" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="12">
         <v>-1468</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="12">
         <v>-1016</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="11">
         <v>-8</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="12">
         <v>2585</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="12">
         <v>-1069</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="12">
         <v>-1964</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="12">
         <f>I7-I11</f>
         <v>-9057</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="12">
         <f>J7-J11</f>
-        <v>-3357.5</v>
-      </c>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4">
-        <v>0</v>
-      </c>
-      <c r="N12" s="4">
+        <v>-1170</v>
+      </c>
+      <c r="L12" s="12">
+        <f>L7-L11</f>
+        <v>22035</v>
+      </c>
+      <c r="M12" s="12">
+        <f t="shared" ref="M12:Q12" si="6">M7-M11</f>
+        <v>23678</v>
+      </c>
+      <c r="N12" s="12">
+        <f t="shared" si="6"/>
         <v>19456</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="12">
+        <f t="shared" si="6"/>
         <v>2334</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="12">
+        <f t="shared" si="6"/>
         <v>93</v>
       </c>
-      <c r="Q12" s="4">
-        <f t="shared" si="1"/>
-        <v>-15447.5</v>
-      </c>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
+      <c r="Q12" s="12">
+        <f t="shared" si="6"/>
+        <v>-13260</v>
+      </c>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C13" s="1">
-        <v>310</v>
+        <v>169</v>
       </c>
       <c r="D13" s="1">
-        <v>200</v>
+        <v>-24</v>
       </c>
       <c r="E13" s="1">
-        <v>-44</v>
-      </c>
-      <c r="F13" s="1">
-        <v>203</v>
+        <v>-191</v>
+      </c>
+      <c r="F13" s="4">
+        <f>P13-SUM(C13:E13)</f>
+        <v>86</v>
       </c>
       <c r="G13" s="1">
-        <v>350</v>
+        <v>205</v>
       </c>
       <c r="H13" s="1">
-        <v>-40</v>
+        <v>-120</v>
       </c>
       <c r="I13" s="4">
-        <f>-159+130</f>
-        <v>-29</v>
-      </c>
-      <c r="J13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
+        <v>-159</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="L13" s="4">
+        <v>1539</v>
+      </c>
+      <c r="M13" s="4">
+        <v>1904</v>
+      </c>
       <c r="N13" s="4">
-        <v>2247</v>
+        <v>2729</v>
       </c>
       <c r="O13" s="4">
-        <v>5434</v>
+        <v>4268</v>
       </c>
       <c r="P13" s="4">
-        <v>669</v>
+        <v>40</v>
       </c>
       <c r="Q13" s="4">
         <f t="shared" si="1"/>
-        <v>281</v>
+        <v>-74</v>
       </c>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
@@ -1286,51 +1378,49 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="4">
-        <v>-1158</v>
+        <v>18</v>
+      </c>
+      <c r="C14" s="1">
+        <v>141</v>
       </c>
       <c r="D14" s="1">
-        <v>-816</v>
+        <v>224</v>
       </c>
       <c r="E14" s="1">
-        <v>-52</v>
+        <v>147</v>
       </c>
       <c r="F14" s="4">
-        <v>2788</v>
+        <f>P14-SUM(C14:E14)</f>
+        <v>117</v>
       </c>
       <c r="G14" s="1">
-        <v>-719</v>
-      </c>
-      <c r="H14" s="4">
-        <v>-2004</v>
+        <v>145</v>
+      </c>
+      <c r="H14" s="1">
+        <v>80</v>
       </c>
       <c r="I14" s="4">
-        <f>I12+I13</f>
-        <v>-9086</v>
+        <v>130</v>
       </c>
       <c r="J14" s="4">
-        <f>J12+J13</f>
-        <v>-3357.5</v>
-      </c>
-      <c r="L14" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="4">
+        <v>484</v>
+      </c>
       <c r="M14" s="4">
-        <v>0</v>
+        <v>-504</v>
       </c>
       <c r="N14" s="4">
-        <v>21703</v>
+        <v>-482</v>
       </c>
       <c r="O14" s="4">
-        <v>7768</v>
+        <v>1166</v>
       </c>
       <c r="P14" s="4">
-        <v>762</v>
-      </c>
-      <c r="Q14" s="4">
-        <f t="shared" si="1"/>
-        <v>-15166.5</v>
-      </c>
+        <v>629</v>
+      </c>
+      <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
@@ -1340,96 +1430,123 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="4">
-        <v>1610</v>
-      </c>
-      <c r="D15" s="4">
-        <v>-2289</v>
-      </c>
-      <c r="E15" s="1">
-        <v>-362</v>
-      </c>
-      <c r="F15" s="1">
-        <v>128</v>
-      </c>
-      <c r="G15" s="1">
-        <v>-282</v>
-      </c>
-      <c r="H15" s="1">
-        <v>-350</v>
-      </c>
-      <c r="I15" s="4">
-        <v>7903</v>
-      </c>
-      <c r="J15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4">
-        <v>1835</v>
-      </c>
-      <c r="O15" s="4">
-        <v>-249</v>
-      </c>
-      <c r="P15" s="4">
-        <v>-913</v>
-      </c>
-      <c r="Q15" s="4">
+    <row r="15" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="12">
+        <f t="shared" ref="C15:K15" si="7">SUM(C12:C14)</f>
+        <v>-1158</v>
+      </c>
+      <c r="D15" s="12">
+        <f t="shared" si="7"/>
+        <v>-816</v>
+      </c>
+      <c r="E15" s="12">
+        <f t="shared" si="7"/>
+        <v>-52</v>
+      </c>
+      <c r="F15" s="12">
+        <f t="shared" si="7"/>
+        <v>2788</v>
+      </c>
+      <c r="G15" s="12">
+        <f t="shared" si="7"/>
+        <v>-719</v>
+      </c>
+      <c r="H15" s="12">
+        <f t="shared" si="7"/>
+        <v>-2004</v>
+      </c>
+      <c r="I15" s="12">
+        <f t="shared" si="7"/>
+        <v>-9086</v>
+      </c>
+      <c r="J15" s="12">
+        <f t="shared" si="7"/>
+        <v>-1170</v>
+      </c>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12">
+        <f>SUM(L12:L14)</f>
+        <v>24058</v>
+      </c>
+      <c r="M15" s="12">
+        <f>SUM(M12:M14)</f>
+        <v>25078</v>
+      </c>
+      <c r="N15" s="12">
+        <f>SUM(N12:N14)</f>
+        <v>21703</v>
+      </c>
+      <c r="O15" s="12">
+        <f>SUM(O12:O14)</f>
+        <v>7768</v>
+      </c>
+      <c r="P15" s="12">
+        <f>SUM(P12:P14)</f>
+        <v>762</v>
+      </c>
+      <c r="Q15" s="12">
         <f t="shared" si="1"/>
-        <v>7271</v>
-      </c>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
+        <v>-12979</v>
+      </c>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="1">
-        <v>-10</v>
-      </c>
-      <c r="D16" s="1">
-        <v>-8</v>
+        <v>22</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1610</v>
+      </c>
+      <c r="D16" s="4">
+        <v>-2289</v>
       </c>
       <c r="E16" s="1">
-        <v>13</v>
-      </c>
-      <c r="F16" s="1">
-        <v>-9</v>
+        <v>-362</v>
+      </c>
+      <c r="F16" s="4">
+        <f>P16-SUM(C16:E16)</f>
+        <v>128</v>
       </c>
       <c r="G16" s="1">
-        <v>-56</v>
+        <v>-282</v>
       </c>
       <c r="H16" s="1">
-        <v>-44</v>
+        <v>-350</v>
       </c>
       <c r="I16" s="4">
-        <v>-350</v>
-      </c>
-      <c r="J16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
+        <v>7903</v>
+      </c>
+      <c r="J16" s="4">
+        <v>-1700</v>
+      </c>
+      <c r="L16" s="4">
+        <v>3010</v>
+      </c>
+      <c r="M16" s="4">
+        <v>4179</v>
+      </c>
       <c r="N16" s="4">
-        <v>0</v>
+        <v>1835</v>
       </c>
       <c r="O16" s="4">
-        <v>3</v>
+        <v>-249</v>
       </c>
       <c r="P16" s="4">
-        <v>-14</v>
+        <v>-913</v>
       </c>
       <c r="Q16" s="4">
         <f t="shared" si="1"/>
-        <v>-450</v>
+        <v>5571</v>
       </c>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
@@ -1442,631 +1559,773 @@
     </row>
     <row r="17" spans="2:73" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="4">
-        <v>-2758</v>
-      </c>
-      <c r="D17" s="4">
-        <v>1481</v>
+        <v>23</v>
+      </c>
+      <c r="C17" s="1">
+        <v>-10</v>
+      </c>
+      <c r="D17" s="1">
+        <v>-8</v>
       </c>
       <c r="E17" s="1">
-        <v>297</v>
+        <v>13</v>
       </c>
       <c r="F17" s="4">
-        <v>2669</v>
+        <f>P17-SUM(C17:E17)</f>
+        <v>-9</v>
       </c>
       <c r="G17" s="1">
-        <v>-381</v>
-      </c>
-      <c r="H17" s="4">
-        <v>-1610</v>
+        <v>-56</v>
+      </c>
+      <c r="H17" s="1">
+        <v>-44</v>
       </c>
       <c r="I17" s="4">
-        <f>I14-I15-I16</f>
-        <v>-16639</v>
-      </c>
-      <c r="J17" s="4">
-        <f>J14-J15-J16</f>
-        <v>-3357.5</v>
-      </c>
-      <c r="L17" s="4"/>
+        <v>-350</v>
+      </c>
+      <c r="J17" s="4"/>
+      <c r="L17" s="4">
+        <v>0</v>
+      </c>
       <c r="M17" s="4">
         <v>0</v>
       </c>
       <c r="N17" s="4">
+        <v>0</v>
+      </c>
+      <c r="O17" s="4">
+        <v>3</v>
+      </c>
+      <c r="P17" s="4">
+        <v>-14</v>
+      </c>
+      <c r="Q17" s="4">
+        <f t="shared" si="1"/>
+        <v>-450</v>
+      </c>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+    </row>
+    <row r="18" spans="2:73" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="16">
+        <v>-2758</v>
+      </c>
+      <c r="D18" s="16">
+        <v>1481</v>
+      </c>
+      <c r="E18" s="15">
+        <v>297</v>
+      </c>
+      <c r="F18" s="16">
+        <v>2669</v>
+      </c>
+      <c r="G18" s="15">
+        <v>-381</v>
+      </c>
+      <c r="H18" s="16">
+        <v>-1610</v>
+      </c>
+      <c r="I18" s="16">
+        <f>I15-I16-I17</f>
+        <v>-16639</v>
+      </c>
+      <c r="J18" s="16">
+        <f>J15-J16-J17</f>
+        <v>530</v>
+      </c>
+      <c r="L18" s="16">
+        <f>L15-L16-L17</f>
+        <v>21048</v>
+      </c>
+      <c r="M18" s="16">
+        <f>M15-M16-M17</f>
+        <v>20899</v>
+      </c>
+      <c r="N18" s="16">
+        <f>N15-N16-N17</f>
         <v>19868</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O18" s="16">
         <v>8014</v>
       </c>
-      <c r="P17" s="4">
+      <c r="P18" s="16">
         <v>1689</v>
       </c>
-      <c r="Q17" s="4">
-        <f>SUM(G17:J17)</f>
-        <v>-21987.5</v>
-      </c>
-      <c r="R17" s="4">
-        <f>R5*R24</f>
-        <v>0</v>
-      </c>
-      <c r="S17" s="4">
-        <f t="shared" ref="S17:Y17" si="2">S5*S24</f>
-        <v>4025.4338460000004</v>
-      </c>
-      <c r="T17" s="4">
-        <f t="shared" si="2"/>
-        <v>5923.138373400001</v>
-      </c>
-      <c r="U17" s="4">
-        <f t="shared" si="2"/>
-        <v>9151.2487869029992</v>
-      </c>
-      <c r="V17" s="4">
-        <f t="shared" si="2"/>
-        <v>15709.643750850151</v>
-      </c>
-      <c r="W17" s="4">
-        <f t="shared" si="2"/>
-        <v>16180.933063375656</v>
-      </c>
-      <c r="X17" s="4">
-        <f t="shared" si="2"/>
-        <v>16666.361055276924</v>
-      </c>
-      <c r="Y17" s="4">
-        <f t="shared" si="2"/>
-        <v>17166.35188693523</v>
-      </c>
-      <c r="Z17" s="4">
-        <f>Y17*(1+Main!$L$10)</f>
-        <v>17509.678924673935</v>
-      </c>
-      <c r="AA17" s="4">
-        <f>Z17*(1+Main!$L$10)</f>
-        <v>17859.872503167415</v>
-      </c>
-      <c r="AB17" s="4">
-        <f>AA17*(1+Main!$L$10)</f>
-        <v>18217.069953230763</v>
-      </c>
-      <c r="AC17" s="4">
-        <f>AB17*(1+Main!$L$10)</f>
-        <v>18581.411352295378</v>
-      </c>
-      <c r="AD17" s="4">
-        <f>AC17*(1+Main!$L$10)</f>
-        <v>18953.039579341286</v>
-      </c>
-      <c r="AE17" s="4">
-        <f>AD17*(1+Main!$L$10)</f>
-        <v>19332.100370928114</v>
-      </c>
-      <c r="AF17" s="4">
-        <f>AE17*(1+Main!$L$10)</f>
-        <v>19718.742378346677</v>
-      </c>
-      <c r="AG17" s="4">
-        <f>AF17*(1+Main!$L$10)</f>
-        <v>20113.117225913611</v>
-      </c>
-      <c r="AH17" s="4">
-        <f>AG17*(1+Main!$L$10)</f>
-        <v>20515.379570431884</v>
-      </c>
-      <c r="AI17" s="4">
-        <f>AH17*(1+Main!$L$10)</f>
-        <v>20925.68716184052</v>
-      </c>
-      <c r="AJ17" s="4">
-        <f>AI17*(1+Main!$L$10)</f>
-        <v>21344.20090507733</v>
-      </c>
-      <c r="AK17" s="4">
-        <f>AJ17*(1+Main!$L$10)</f>
-        <v>21771.084923178878</v>
-      </c>
-      <c r="AL17" s="4">
-        <f>AK17*(1+Main!$L$10)</f>
-        <v>22206.506621642457</v>
-      </c>
-      <c r="AM17" s="4">
-        <f>AL17*(1+Main!$L$10)</f>
-        <v>22650.636754075305</v>
-      </c>
-      <c r="AN17" s="4">
-        <f>AM17*(1+Main!$L$10)</f>
-        <v>23103.649489156811</v>
-      </c>
-      <c r="AO17" s="4">
-        <f>AN17*(1+Main!$L$10)</f>
-        <v>23565.722478939948</v>
-      </c>
-      <c r="AP17" s="4">
-        <f>AO17*(1+Main!$L$10)</f>
-        <v>24037.036928518748</v>
-      </c>
-      <c r="AQ17" s="4">
-        <f>AP17*(1+Main!$L$10)</f>
-        <v>24517.777667089122</v>
-      </c>
-      <c r="AR17" s="4">
-        <f>AQ17*(1+Main!$L$10)</f>
-        <v>25008.133220430904</v>
-      </c>
-      <c r="AS17" s="4">
-        <f>AR17*(1+Main!$L$10)</f>
-        <v>25508.295884839521</v>
-      </c>
-      <c r="AT17" s="4">
-        <f>AS17*(1+Main!$L$10)</f>
-        <v>26018.461802536312</v>
-      </c>
-      <c r="AU17" s="4">
-        <f>AT17*(1+Main!$L$10)</f>
-        <v>26538.831038587039</v>
-      </c>
-      <c r="AV17" s="4">
-        <f>AU17*(1+Main!$L$10)</f>
-        <v>27069.607659358779</v>
-      </c>
-      <c r="AW17" s="4">
-        <f>AV17*(1+Main!$L$10)</f>
-        <v>27610.999812545953</v>
-      </c>
-      <c r="AX17" s="4">
-        <f>AW17*(1+Main!$L$10)</f>
-        <v>28163.219808796872</v>
-      </c>
-      <c r="AY17" s="4">
-        <f>AX17*(1+Main!$L$10)</f>
-        <v>28726.48420497281</v>
-      </c>
-      <c r="AZ17" s="4">
-        <f>AY17*(1+Main!$L$10)</f>
-        <v>29301.013889072266</v>
-      </c>
-      <c r="BA17" s="4">
-        <f>AZ17*(1+Main!$L$10)</f>
-        <v>29887.034166853711</v>
-      </c>
-      <c r="BB17" s="4">
-        <f>BA17*(1+Main!$L$10)</f>
-        <v>30484.774850190784</v>
-      </c>
-      <c r="BC17" s="4">
-        <f>BB17*(1+Main!$L$10)</f>
-        <v>31094.470347194601</v>
-      </c>
-      <c r="BD17" s="4">
-        <f>BC17*(1+Main!$L$10)</f>
-        <v>31716.359754138495</v>
-      </c>
-      <c r="BE17" s="4">
-        <f>BD17*(1+Main!$L$10)</f>
-        <v>32350.686949221265</v>
-      </c>
-      <c r="BF17" s="4">
-        <f>BE17*(1+Main!$L$10)</f>
-        <v>32997.700688205688</v>
-      </c>
-      <c r="BG17" s="4">
-        <f>BF17*(1+Main!$L$10)</f>
-        <v>33657.654701969805</v>
-      </c>
-      <c r="BH17" s="4">
-        <f>BG17*(1+Main!$L$10)</f>
-        <v>34330.807796009198</v>
-      </c>
-      <c r="BI17" s="4">
-        <f>BH17*(1+Main!$L$10)</f>
-        <v>35017.423951929384</v>
-      </c>
-      <c r="BJ17" s="4">
-        <f>BI17*(1+Main!$L$10)</f>
-        <v>35717.772430967976</v>
-      </c>
-      <c r="BK17" s="4">
-        <f>BJ17*(1+Main!$L$10)</f>
-        <v>36432.127879587337</v>
-      </c>
-      <c r="BL17" s="4">
-        <f>BK17*(1+Main!$L$10)</f>
-        <v>37160.770437179082</v>
-      </c>
-      <c r="BM17" s="4">
-        <f>BL17*(1+Main!$L$10)</f>
-        <v>37903.985845922667</v>
-      </c>
-      <c r="BN17" s="4">
-        <f>BM17*(1+Main!$L$10)</f>
-        <v>38662.065562841119</v>
-      </c>
-      <c r="BO17" s="4">
-        <f>BN17*(1+Main!$L$10)</f>
-        <v>39435.306874097943</v>
-      </c>
-      <c r="BP17" s="4">
-        <f>BO17*(1+Main!$L$10)</f>
-        <v>40224.013011579904</v>
-      </c>
-      <c r="BQ17" s="4">
-        <f>BP17*(1+Main!$L$10)</f>
-        <v>41028.493271811501</v>
-      </c>
-      <c r="BR17" s="4">
-        <f>BQ17*(1+Main!$L$10)</f>
-        <v>41849.063137247729</v>
-      </c>
-      <c r="BS17" s="4">
-        <f>BR17*(1+Main!$L$10)</f>
-        <v>42686.044399992687</v>
-      </c>
-      <c r="BT17" s="4">
-        <f>BS17*(1+Main!$L$10)</f>
-        <v>43539.765287992544</v>
-      </c>
-      <c r="BU17" s="4">
-        <f>BT17*(1+Main!$L$10)</f>
-        <v>44410.560593752394</v>
-      </c>
-    </row>
-    <row r="18" spans="2:73" x14ac:dyDescent="0.2">
-      <c r="B18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="1">
+      <c r="Q18" s="16">
+        <f>SUM(G18:J18)</f>
+        <v>-18100</v>
+      </c>
+      <c r="R18" s="16">
+        <f>R5*R25</f>
+        <v>5583.1260000000002</v>
+      </c>
+      <c r="S18" s="16">
+        <f t="shared" ref="S18:Y18" si="8">S5*S25</f>
+        <v>4103.5976100000007</v>
+      </c>
+      <c r="T18" s="16">
+        <f t="shared" si="8"/>
+        <v>6038.1507690000008</v>
+      </c>
+      <c r="U18" s="16">
+        <f t="shared" si="8"/>
+        <v>9328.9429381050013</v>
+      </c>
+      <c r="V18" s="16">
+        <f t="shared" si="8"/>
+        <v>12811.748301664202</v>
+      </c>
+      <c r="W18" s="16">
+        <f t="shared" si="8"/>
+        <v>16495.125938392659</v>
+      </c>
+      <c r="X18" s="16">
+        <f t="shared" si="8"/>
+        <v>16989.97971654444</v>
+      </c>
+      <c r="Y18" s="16">
+        <f t="shared" si="8"/>
+        <v>17499.679108040771</v>
+      </c>
+      <c r="Z18" s="16">
+        <f>Y18*(1+Main!$L$10)</f>
+        <v>17849.672690201587</v>
+      </c>
+      <c r="AA18" s="16">
+        <f>Z18*(1+Main!$L$10)</f>
+        <v>18206.66614400562</v>
+      </c>
+      <c r="AB18" s="16">
+        <f>AA18*(1+Main!$L$10)</f>
+        <v>18570.799466885732</v>
+      </c>
+      <c r="AC18" s="16">
+        <f>AB18*(1+Main!$L$10)</f>
+        <v>18942.215456223446</v>
+      </c>
+      <c r="AD18" s="16">
+        <f>AC18*(1+Main!$L$10)</f>
+        <v>19321.059765347916</v>
+      </c>
+      <c r="AE18" s="16">
+        <f>AD18*(1+Main!$L$10)</f>
+        <v>19707.480960654873</v>
+      </c>
+      <c r="AF18" s="16">
+        <f>AE18*(1+Main!$L$10)</f>
+        <v>20101.630579867971</v>
+      </c>
+      <c r="AG18" s="16">
+        <f>AF18*(1+Main!$L$10)</f>
+        <v>20503.66319146533</v>
+      </c>
+      <c r="AH18" s="16">
+        <f>AG18*(1+Main!$L$10)</f>
+        <v>20913.736455294638</v>
+      </c>
+      <c r="AI18" s="16">
+        <f>AH18*(1+Main!$L$10)</f>
+        <v>21332.011184400533</v>
+      </c>
+      <c r="AJ18" s="16">
+        <f>AI18*(1+Main!$L$10)</f>
+        <v>21758.651408088543</v>
+      </c>
+      <c r="AK18" s="16">
+        <f>AJ18*(1+Main!$L$10)</f>
+        <v>22193.824436250314</v>
+      </c>
+      <c r="AL18" s="16">
+        <f>AK18*(1+Main!$L$10)</f>
+        <v>22637.700924975321</v>
+      </c>
+      <c r="AM18" s="16">
+        <f>AL18*(1+Main!$L$10)</f>
+        <v>23090.454943474826</v>
+      </c>
+      <c r="AN18" s="16">
+        <f>AM18*(1+Main!$L$10)</f>
+        <v>23552.264042344323</v>
+      </c>
+      <c r="AO18" s="16">
+        <f>AN18*(1+Main!$L$10)</f>
+        <v>24023.30932319121</v>
+      </c>
+      <c r="AP18" s="16">
+        <f>AO18*(1+Main!$L$10)</f>
+        <v>24503.775509655035</v>
+      </c>
+      <c r="AQ18" s="16">
+        <f>AP18*(1+Main!$L$10)</f>
+        <v>24993.851019848138</v>
+      </c>
+      <c r="AR18" s="16">
+        <f>AQ18*(1+Main!$L$10)</f>
+        <v>25493.7280402451</v>
+      </c>
+      <c r="AS18" s="16">
+        <f>AR18*(1+Main!$L$10)</f>
+        <v>26003.602601050003</v>
+      </c>
+      <c r="AT18" s="16">
+        <f>AS18*(1+Main!$L$10)</f>
+        <v>26523.674653071004</v>
+      </c>
+      <c r="AU18" s="16">
+        <f>AT18*(1+Main!$L$10)</f>
+        <v>27054.148146132426</v>
+      </c>
+      <c r="AV18" s="16">
+        <f>AU18*(1+Main!$L$10)</f>
+        <v>27595.231109055076</v>
+      </c>
+      <c r="AW18" s="16">
+        <f>AV18*(1+Main!$L$10)</f>
+        <v>28147.135731236176</v>
+      </c>
+      <c r="AX18" s="16">
+        <f>AW18*(1+Main!$L$10)</f>
+        <v>28710.078445860901</v>
+      </c>
+      <c r="AY18" s="16">
+        <f>AX18*(1+Main!$L$10)</f>
+        <v>29284.28001477812</v>
+      </c>
+      <c r="AZ18" s="16">
+        <f>AY18*(1+Main!$L$10)</f>
+        <v>29869.965615073685</v>
+      </c>
+      <c r="BA18" s="16">
+        <f>AZ18*(1+Main!$L$10)</f>
+        <v>30467.364927375158</v>
+      </c>
+      <c r="BB18" s="16">
+        <f>BA18*(1+Main!$L$10)</f>
+        <v>31076.712225922663</v>
+      </c>
+      <c r="BC18" s="16">
+        <f>BB18*(1+Main!$L$10)</f>
+        <v>31698.246470441118</v>
+      </c>
+      <c r="BD18" s="16">
+        <f>BC18*(1+Main!$L$10)</f>
+        <v>32332.211399849941</v>
+      </c>
+      <c r="BE18" s="16">
+        <f>BD18*(1+Main!$L$10)</f>
+        <v>32978.85562784694</v>
+      </c>
+      <c r="BF18" s="16">
+        <f>BE18*(1+Main!$L$10)</f>
+        <v>33638.432740403878</v>
+      </c>
+      <c r="BG18" s="16">
+        <f>BF18*(1+Main!$L$10)</f>
+        <v>34311.201395211952</v>
+      </c>
+      <c r="BH18" s="16">
+        <f>BG18*(1+Main!$L$10)</f>
+        <v>34997.42542311619</v>
+      </c>
+      <c r="BI18" s="16">
+        <f>BH18*(1+Main!$L$10)</f>
+        <v>35697.373931578513</v>
+      </c>
+      <c r="BJ18" s="16">
+        <f>BI18*(1+Main!$L$10)</f>
+        <v>36411.321410210083</v>
+      </c>
+      <c r="BK18" s="16">
+        <f>BJ18*(1+Main!$L$10)</f>
+        <v>37139.547838414284</v>
+      </c>
+      <c r="BL18" s="16">
+        <f>BK18*(1+Main!$L$10)</f>
+        <v>37882.338795182572</v>
+      </c>
+      <c r="BM18" s="16">
+        <f>BL18*(1+Main!$L$10)</f>
+        <v>38639.985571086225</v>
+      </c>
+      <c r="BN18" s="16">
+        <f>BM18*(1+Main!$L$10)</f>
+        <v>39412.785282507954</v>
+      </c>
+      <c r="BO18" s="16">
+        <f>BN18*(1+Main!$L$10)</f>
+        <v>40201.040988158114</v>
+      </c>
+      <c r="BP18" s="16">
+        <f>BO18*(1+Main!$L$10)</f>
+        <v>41005.06180792128</v>
+      </c>
+      <c r="BQ18" s="16">
+        <f>BP18*(1+Main!$L$10)</f>
+        <v>41825.163044079709</v>
+      </c>
+      <c r="BR18" s="16">
+        <f>BQ18*(1+Main!$L$10)</f>
+        <v>42661.666304961305</v>
+      </c>
+      <c r="BS18" s="16">
+        <f>BR18*(1+Main!$L$10)</f>
+        <v>43514.899631060529</v>
+      </c>
+      <c r="BT18" s="16">
+        <f>BS18*(1+Main!$L$10)</f>
+        <v>44385.197623681743</v>
+      </c>
+      <c r="BU18" s="16">
+        <f>BT18*(1+Main!$L$10)</f>
+        <v>45272.901576155382</v>
+      </c>
+    </row>
+    <row r="19" spans="2:73" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="11">
         <v>-0.66</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D19" s="11">
         <v>0.35</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E19" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F19" s="11">
         <v>0.63</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G19" s="11">
         <v>-0.09</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H19" s="11">
         <v>-0.38</v>
       </c>
-      <c r="I18" s="3">
-        <f>I17/I19</f>
+      <c r="I19" s="13">
+        <f>I18/I20</f>
         <v>-3.8767474370922645</v>
       </c>
-      <c r="J18" s="3">
-        <f>J17/J19</f>
-        <v>-0.78226933830382106</v>
-      </c>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N18" s="3">
-        <v>4.8600000000000003</v>
-      </c>
-      <c r="O18" s="3">
-        <v>1.94</v>
-      </c>
-      <c r="P18" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="Q18" s="3">
-        <f>Q17/Q19</f>
-        <v>-5.1229030754892824</v>
-      </c>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-    </row>
-    <row r="19" spans="2:73" x14ac:dyDescent="0.2">
-      <c r="B19" s="1" t="s">
+      <c r="J19" s="13">
+        <f>J18/J20</f>
+        <v>0.12348555452003727</v>
+      </c>
+      <c r="L19" s="13">
+        <f>L18/L20</f>
+        <v>4.7055667337357479</v>
+      </c>
+      <c r="M19" s="13">
+        <f t="shared" ref="M19:P19" si="9">M18/M20</f>
+        <v>4.9383270321361055</v>
+      </c>
+      <c r="N19" s="13">
+        <f t="shared" si="9"/>
+        <v>4.8577017114914423</v>
+      </c>
+      <c r="O19" s="13">
+        <f t="shared" si="9"/>
+        <v>1.9437302934756246</v>
+      </c>
+      <c r="P19" s="13">
+        <f t="shared" si="9"/>
+        <v>0.400997150997151</v>
+      </c>
+      <c r="Q19" s="13">
+        <f>Q18/Q20</f>
+        <v>-4.217148182665424</v>
+      </c>
+      <c r="R19" s="13">
+        <f>R18/R20</f>
+        <v>1.3008215284249767</v>
+      </c>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+    </row>
+    <row r="20" spans="2:73" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C20" s="4">
         <v>4154</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D20" s="4">
         <v>4196</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E20" s="4">
         <v>4229</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F20" s="4">
+        <f>P20</f>
         <v>4212</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G20" s="4">
         <v>4242</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H20" s="4">
         <v>4267</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I20" s="4">
         <v>4292</v>
       </c>
-      <c r="J19" s="4">
-        <f>I19</f>
+      <c r="J20" s="4">
+        <f>I20</f>
         <v>4292</v>
       </c>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4">
+      <c r="L20" s="4">
+        <v>4473</v>
+      </c>
+      <c r="M20" s="4">
+        <v>4232</v>
+      </c>
+      <c r="N20" s="4">
         <v>4090</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O20" s="4">
         <v>4123</v>
       </c>
-      <c r="P19" s="4">
+      <c r="P20" s="4">
         <v>4212</v>
       </c>
-      <c r="Q19" s="4">
-        <f>J19</f>
+      <c r="Q20" s="4">
+        <f>J20</f>
         <v>4292</v>
       </c>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-    </row>
-    <row r="21" spans="2:73" x14ac:dyDescent="0.2">
-      <c r="B21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21" s="6">
-        <f t="shared" ref="G21:H21" si="3">G5/C5-1</f>
+      <c r="R20" s="4">
+        <f>Q20</f>
+        <v>4292</v>
+      </c>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+    </row>
+    <row r="22" spans="2:73" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="6">
+        <f t="shared" ref="G22:H22" si="10">G5/C5-1</f>
         <v>8.6128894579598825E-2</v>
       </c>
-      <c r="H21" s="6">
-        <f t="shared" si="3"/>
+      <c r="H22" s="6">
+        <f t="shared" si="10"/>
         <v>-8.9582207120241231E-3</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I22" s="6">
         <f>I5/E5-1</f>
         <v>-6.1731883034326862E-2</v>
       </c>
-      <c r="M21" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N21" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O21" s="5">
-        <v>-0.2021</v>
-      </c>
-      <c r="P21" s="5">
-        <v>-0.14000000000000001</v>
-      </c>
-      <c r="Q21" s="6">
+      <c r="J22" s="6">
+        <f>J5/F5-1</f>
+        <v>-0.10229780604959104</v>
+      </c>
+      <c r="M22" s="5">
+        <f t="shared" ref="M22:O22" si="11">M5/L5-1</f>
+        <v>8.2012089210032668E-2</v>
+      </c>
+      <c r="N22" s="5">
+        <f t="shared" si="11"/>
+        <v>1.4858669269395275E-2</v>
+      </c>
+      <c r="O22" s="5">
+        <f t="shared" si="11"/>
+        <v>-0.20209050415063778</v>
+      </c>
+      <c r="P22" s="5">
+        <f>P5/O5-1</f>
+        <v>-0.13997525930155108</v>
+      </c>
+      <c r="Q22" s="5">
         <f>Q5/P5-1</f>
         <v>-2.8712104447886744E-2</v>
       </c>
-      <c r="R21" s="7">
+      <c r="R22" s="7">
         <v>0.06</v>
       </c>
-      <c r="S21" s="7">
+      <c r="S22" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="T22" s="7">
         <v>0.03</v>
       </c>
-      <c r="T21" s="7">
+      <c r="U22" s="7">
         <v>0.03</v>
       </c>
-      <c r="U21" s="7">
+      <c r="V22" s="7">
         <v>0.03</v>
       </c>
-      <c r="V21" s="7">
+      <c r="W22" s="7">
         <v>0.03</v>
       </c>
-      <c r="W21" s="7">
+      <c r="X22" s="7">
         <v>0.03</v>
       </c>
-      <c r="X21" s="7">
+      <c r="Y22" s="7">
         <v>0.03</v>
       </c>
-      <c r="Y21" s="7">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="22" spans="2:73" x14ac:dyDescent="0.2">
-      <c r="B22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="6">
-        <f t="shared" ref="C22:F22" si="4">C7/C5</f>
+    </row>
+    <row r="23" spans="2:73" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="6">
+        <f t="shared" ref="C23:F23" si="12">C7/C5</f>
         <v>0.34212548015364919</v>
       </c>
-      <c r="D22" s="6">
-        <f t="shared" si="4"/>
+      <c r="D23" s="6">
+        <f t="shared" si="12"/>
         <v>0.35817437639972199</v>
       </c>
-      <c r="E22" s="6">
-        <f t="shared" si="4"/>
+      <c r="E23" s="6">
+        <f t="shared" si="12"/>
         <v>0.42506003672835146</v>
       </c>
-      <c r="F22" s="6">
-        <f t="shared" si="4"/>
+      <c r="F23" s="6">
+        <f t="shared" si="12"/>
         <v>0.45741918732961184</v>
       </c>
-      <c r="G22" s="6">
-        <f t="shared" ref="G22:H22" si="5">G7/G5</f>
+      <c r="G23" s="6">
+        <f t="shared" ref="G23:H23" si="13">G7/G5</f>
         <v>0.41001257466205598</v>
       </c>
-      <c r="H22" s="6">
-        <f t="shared" si="5"/>
+      <c r="H23" s="6">
+        <f t="shared" si="13"/>
         <v>0.35432089145172602</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I23" s="6">
         <f>I7/I5</f>
         <v>0.15033122553447756</v>
       </c>
-      <c r="M22" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N22" s="5">
-        <v>0.55449999999999999</v>
-      </c>
-      <c r="O22" s="5">
-        <v>0.42609999999999998</v>
-      </c>
-      <c r="P22" s="5">
-        <v>0.40039999999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="2:73" x14ac:dyDescent="0.2">
-      <c r="B23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="6">
-        <f t="shared" ref="C23:G23" si="6">C15/C14</f>
-        <v>-1.390328151986183</v>
-      </c>
-      <c r="D23" s="6">
-        <f t="shared" si="6"/>
-        <v>2.8051470588235294</v>
-      </c>
-      <c r="E23" s="6">
-        <f t="shared" si="6"/>
-        <v>6.9615384615384617</v>
-      </c>
-      <c r="F23" s="6">
-        <f t="shared" si="6"/>
-        <v>4.5911047345767578E-2</v>
-      </c>
-      <c r="G23" s="6">
-        <f t="shared" si="6"/>
-        <v>0.39221140472878996</v>
-      </c>
-      <c r="H23" s="6">
-        <f>H15/H14</f>
-        <v>0.17465069860279442</v>
-      </c>
-      <c r="I23" s="6">
-        <f>I15/I14</f>
-        <v>-0.86979969183359018</v>
-      </c>
-      <c r="M23" s="1" t="e">
-        <v>#DIV/0!</v>
+      <c r="J23" s="6">
+        <f>J7/J5</f>
+        <v>0.2769342010122921</v>
+      </c>
+      <c r="L23" s="5">
+        <f t="shared" ref="L23:O23" si="14">L7/L5</f>
+        <v>0.5855624261793928</v>
+      </c>
+      <c r="M23" s="5">
+        <f t="shared" si="14"/>
+        <v>0.5600832188218372</v>
       </c>
       <c r="N23" s="5">
-        <v>8.4599999999999995E-2</v>
+        <f t="shared" si="14"/>
+        <v>0.5544518121077141</v>
       </c>
       <c r="O23" s="5">
-        <v>-3.2099999999999997E-2</v>
+        <f t="shared" si="14"/>
+        <v>0.42607923367272499</v>
       </c>
       <c r="P23" s="5">
-        <v>-1.1981999999999999</v>
+        <f>P7/P5</f>
+        <v>0.40036512502766097</v>
+      </c>
+      <c r="Q23" s="5">
+        <f>Q7/Q5</f>
+        <v>0.29600729053938601</v>
       </c>
     </row>
     <row r="24" spans="2:73" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C24" s="6">
-        <f t="shared" ref="C24:G24" si="7">C17/C5</f>
-        <v>-0.23542466922748612</v>
+        <f t="shared" ref="C24:G24" si="15">C16/C15</f>
+        <v>-1.390328151986183</v>
       </c>
       <c r="D24" s="6">
-        <f t="shared" si="7"/>
-        <v>0.114371766159549</v>
+        <f t="shared" si="15"/>
+        <v>2.8051470588235294</v>
       </c>
       <c r="E24" s="6">
-        <f t="shared" si="7"/>
-        <v>2.097753920045204E-2</v>
+        <f t="shared" si="15"/>
+        <v>6.9615384615384617</v>
       </c>
       <c r="F24" s="6">
-        <f t="shared" si="7"/>
-        <v>0.1732441905751006</v>
+        <f t="shared" si="15"/>
+        <v>4.5911047345767578E-2</v>
       </c>
       <c r="G24" s="6">
-        <f t="shared" si="7"/>
-        <v>-2.9943414020748193E-2</v>
+        <f t="shared" si="15"/>
+        <v>0.39221140472878996</v>
       </c>
       <c r="H24" s="6">
-        <f>H17/H5</f>
-        <v>-0.12545780409880777</v>
+        <f>H16/H15</f>
+        <v>0.17465069860279442</v>
       </c>
       <c r="I24" s="6">
-        <f>I17/I5</f>
-        <v>-1.2525594700391449</v>
-      </c>
-      <c r="M24" s="1" t="e">
-        <v>#DIV/0!</v>
+        <f>I16/I15</f>
+        <v>-0.86979969183359018</v>
+      </c>
+      <c r="J24" s="6">
+        <f>J16/J15</f>
+        <v>1.4529914529914529</v>
+      </c>
+      <c r="L24" s="5">
+        <f t="shared" ref="L24:O24" si="16">L16/L15</f>
+        <v>0.12511430709119628</v>
+      </c>
+      <c r="M24" s="5">
+        <f t="shared" si="16"/>
+        <v>0.16664008294122337</v>
       </c>
       <c r="N24" s="5">
-        <v>0.25140000000000001</v>
+        <f t="shared" si="16"/>
+        <v>8.4550522969174771E-2</v>
       </c>
       <c r="O24" s="5">
-        <v>0.12709999999999999</v>
+        <f t="shared" si="16"/>
+        <v>-3.2054582904222452E-2</v>
       </c>
       <c r="P24" s="5">
-        <v>3.1099999999999999E-2</v>
-      </c>
-      <c r="R24" s="5">
-        <v>0</v>
-      </c>
-      <c r="S24" s="5">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="T24" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="U24" s="5">
-        <v>0.15</v>
-      </c>
-      <c r="V24" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="W24" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="X24" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="Y24" s="5">
-        <v>0.25</v>
+        <f>P16/P15</f>
+        <v>-1.1981627296587927</v>
+      </c>
+      <c r="Q24" s="5">
+        <f>Q16/Q15</f>
+        <v>-0.42923183604283843</v>
       </c>
     </row>
     <row r="25" spans="2:73" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M25" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N25" s="1" t="e">
-        <v>#DIV/0!</v>
+        <v>38</v>
+      </c>
+      <c r="C25" s="6">
+        <f t="shared" ref="C25:G25" si="17">C18/C5</f>
+        <v>-0.23542466922748612</v>
+      </c>
+      <c r="D25" s="6">
+        <f t="shared" si="17"/>
+        <v>0.114371766159549</v>
+      </c>
+      <c r="E25" s="6">
+        <f t="shared" si="17"/>
+        <v>2.097753920045204E-2</v>
+      </c>
+      <c r="F25" s="6">
+        <f t="shared" si="17"/>
+        <v>0.1732441905751006</v>
+      </c>
+      <c r="G25" s="6">
+        <f t="shared" si="17"/>
+        <v>-2.9943414020748193E-2</v>
+      </c>
+      <c r="H25" s="6">
+        <f>H18/H5</f>
+        <v>-0.12545780409880777</v>
+      </c>
+      <c r="I25" s="6">
+        <f>I18/I5</f>
+        <v>-1.2525594700391449</v>
+      </c>
+      <c r="J25" s="6">
+        <f>J18/J5</f>
+        <v>3.8322487346348515E-2</v>
+      </c>
+      <c r="L25" s="5">
+        <f t="shared" ref="L25:Q25" si="18">L18/L5</f>
+        <v>0.2924755089279511</v>
+      </c>
+      <c r="M25" s="5">
+        <f t="shared" si="18"/>
+        <v>0.26839354283586114</v>
+      </c>
+      <c r="N25" s="5">
+        <f t="shared" si="18"/>
+        <v>0.25141729094958493</v>
       </c>
       <c r="O25" s="5">
-        <v>0.15390000000000001</v>
+        <f t="shared" si="18"/>
+        <v>0.1270974085704317</v>
       </c>
       <c r="P25" s="5">
-        <v>-8.4599999999999995E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="2:73" x14ac:dyDescent="0.2">
-      <c r="B27" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="2:73" x14ac:dyDescent="0.2">
-      <c r="Z29" s="3"/>
-    </row>
-    <row r="32" spans="2:73" x14ac:dyDescent="0.2">
-      <c r="Z32" s="3"/>
+        <f>P18/P5</f>
+        <v>3.1146271298959947E-2</v>
+      </c>
+      <c r="Q25" s="5">
+        <f t="shared" si="18"/>
+        <v>-0.3436426116838488</v>
+      </c>
+      <c r="R25" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="S25" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="T25" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="U25" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="V25" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="W25" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="X25" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="Y25" s="5">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:73" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M26" s="5">
+        <f t="shared" ref="M26:Q26" si="19">M8/L8-1</f>
+        <v>1.451878461308187E-2</v>
+      </c>
+      <c r="N26" s="5">
+        <f t="shared" si="19"/>
+        <v>0.12053703157273521</v>
+      </c>
+      <c r="O26" s="5">
+        <f t="shared" si="19"/>
+        <v>0.15391705069124417</v>
+      </c>
+      <c r="P26" s="5">
+        <f>P8/O8-1</f>
+        <v>-8.4550433591967122E-2</v>
+      </c>
+      <c r="Q26" s="5">
+        <f t="shared" si="19"/>
+        <v>2.6424030911130547E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:73" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="2:73" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3"/>
     </row>
     <row r="33" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z33" s="3"/>
+    </row>
+    <row r="34" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/INTC.xlsx
+++ b/INTC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayanpussurmanov/Finance/financial_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651D831E-6B18-634D-A681-D201996C1B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285F2A71-793A-404C-87D8-336420DF1F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="14320" windowHeight="18380" activeTab="1" xr2:uid="{FFDE8198-0A80-C04D-964E-60CE6D882A3C}"/>
   </bookViews>
@@ -736,8 +736,8 @@
   <dimension ref="A1:BU34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R6" sqref="R6"/>
+      <pane xSplit="2" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1420,7 +1420,10 @@
       <c r="P14" s="4">
         <v>629</v>
       </c>
-      <c r="Q14" s="4"/>
+      <c r="Q14" s="4">
+        <f t="shared" si="1"/>
+        <v>355</v>
+      </c>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
@@ -1488,7 +1491,7 @@
         <v>762</v>
       </c>
       <c r="Q15" s="12">
-        <f t="shared" si="1"/>
+        <f>SUM(Q12:Q14)</f>
         <v>-12979</v>
       </c>
       <c r="R15" s="12"/>
@@ -1655,13 +1658,15 @@
         <v>19868</v>
       </c>
       <c r="O18" s="16">
+        <f t="shared" ref="O18:Q18" si="8">O15-O16-O17</f>
         <v>8014</v>
       </c>
       <c r="P18" s="16">
+        <f t="shared" si="8"/>
         <v>1689</v>
       </c>
       <c r="Q18" s="16">
-        <f>SUM(G18:J18)</f>
+        <f t="shared" si="8"/>
         <v>-18100</v>
       </c>
       <c r="R18" s="16">
@@ -1669,31 +1674,31 @@
         <v>5583.1260000000002</v>
       </c>
       <c r="S18" s="16">
-        <f t="shared" ref="S18:Y18" si="8">S5*S25</f>
+        <f t="shared" ref="S18:Y18" si="9">S5*S25</f>
         <v>4103.5976100000007</v>
       </c>
       <c r="T18" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6038.1507690000008</v>
       </c>
       <c r="U18" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9328.9429381050013</v>
       </c>
       <c r="V18" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>12811.748301664202</v>
       </c>
       <c r="W18" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>16495.125938392659</v>
       </c>
       <c r="X18" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>16989.97971654444</v>
       </c>
       <c r="Y18" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>17499.679108040771</v>
       </c>
       <c r="Z18" s="16">
@@ -1924,19 +1929,19 @@
         <v>4.7055667337357479</v>
       </c>
       <c r="M19" s="13">
-        <f t="shared" ref="M19:P19" si="9">M18/M20</f>
+        <f t="shared" ref="M19:P19" si="10">M18/M20</f>
         <v>4.9383270321361055</v>
       </c>
       <c r="N19" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4.8577017114914423</v>
       </c>
       <c r="O19" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.9437302934756246</v>
       </c>
       <c r="P19" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.400997150997151</v>
       </c>
       <c r="Q19" s="13">
@@ -2021,11 +2026,11 @@
         <v>36</v>
       </c>
       <c r="G22" s="6">
-        <f t="shared" ref="G22:H22" si="10">G5/C5-1</f>
+        <f t="shared" ref="G22:H22" si="11">G5/C5-1</f>
         <v>8.6128894579598825E-2</v>
       </c>
       <c r="H22" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-8.9582207120241231E-3</v>
       </c>
       <c r="I22" s="6">
@@ -2037,15 +2042,15 @@
         <v>-0.10229780604959104</v>
       </c>
       <c r="M22" s="5">
-        <f t="shared" ref="M22:O22" si="11">M5/L5-1</f>
+        <f t="shared" ref="M22:O22" si="12">M5/L5-1</f>
         <v>8.2012089210032668E-2</v>
       </c>
       <c r="N22" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.4858669269395275E-2</v>
       </c>
       <c r="O22" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-0.20209050415063778</v>
       </c>
       <c r="P22" s="5">
@@ -2086,27 +2091,27 @@
         <v>26</v>
       </c>
       <c r="C23" s="6">
-        <f t="shared" ref="C23:F23" si="12">C7/C5</f>
+        <f t="shared" ref="C23:F23" si="13">C7/C5</f>
         <v>0.34212548015364919</v>
       </c>
       <c r="D23" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.35817437639972199</v>
       </c>
       <c r="E23" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.42506003672835146</v>
       </c>
       <c r="F23" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.45741918732961184</v>
       </c>
       <c r="G23" s="6">
-        <f t="shared" ref="G23:H23" si="13">G7/G5</f>
+        <f t="shared" ref="G23:H23" si="14">G7/G5</f>
         <v>0.41001257466205598</v>
       </c>
       <c r="H23" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.35432089145172602</v>
       </c>
       <c r="I23" s="6">
@@ -2118,19 +2123,19 @@
         <v>0.2769342010122921</v>
       </c>
       <c r="L23" s="5">
-        <f t="shared" ref="L23:O23" si="14">L7/L5</f>
+        <f t="shared" ref="L23:O23" si="15">L7/L5</f>
         <v>0.5855624261793928</v>
       </c>
       <c r="M23" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.5600832188218372</v>
       </c>
       <c r="N23" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.5544518121077141</v>
       </c>
       <c r="O23" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.42607923367272499</v>
       </c>
       <c r="P23" s="5">
@@ -2147,23 +2152,23 @@
         <v>27</v>
       </c>
       <c r="C24" s="6">
-        <f t="shared" ref="C24:G24" si="15">C16/C15</f>
+        <f t="shared" ref="C24:G24" si="16">C16/C15</f>
         <v>-1.390328151986183</v>
       </c>
       <c r="D24" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2.8051470588235294</v>
       </c>
       <c r="E24" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>6.9615384615384617</v>
       </c>
       <c r="F24" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4.5911047345767578E-2</v>
       </c>
       <c r="G24" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.39221140472878996</v>
       </c>
       <c r="H24" s="6">
@@ -2179,19 +2184,19 @@
         <v>1.4529914529914529</v>
       </c>
       <c r="L24" s="5">
-        <f t="shared" ref="L24:O24" si="16">L16/L15</f>
+        <f t="shared" ref="L24:O24" si="17">L16/L15</f>
         <v>0.12511430709119628</v>
       </c>
       <c r="M24" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.16664008294122337</v>
       </c>
       <c r="N24" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8.4550522969174771E-2</v>
       </c>
       <c r="O24" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-3.2054582904222452E-2</v>
       </c>
       <c r="P24" s="5">
@@ -2208,23 +2213,23 @@
         <v>38</v>
       </c>
       <c r="C25" s="6">
-        <f t="shared" ref="C25:G25" si="17">C18/C5</f>
+        <f t="shared" ref="C25:G25" si="18">C18/C5</f>
         <v>-0.23542466922748612</v>
       </c>
       <c r="D25" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.114371766159549</v>
       </c>
       <c r="E25" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2.097753920045204E-2</v>
       </c>
       <c r="F25" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.1732441905751006</v>
       </c>
       <c r="G25" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-2.9943414020748193E-2</v>
       </c>
       <c r="H25" s="6">
@@ -2240,19 +2245,19 @@
         <v>3.8322487346348515E-2</v>
       </c>
       <c r="L25" s="5">
-        <f t="shared" ref="L25:Q25" si="18">L18/L5</f>
+        <f t="shared" ref="L25:Q25" si="19">L18/L5</f>
         <v>0.2924755089279511</v>
       </c>
       <c r="M25" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.26839354283586114</v>
       </c>
       <c r="N25" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.25141729094958493</v>
       </c>
       <c r="O25" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.1270974085704317</v>
       </c>
       <c r="P25" s="5">
@@ -2260,7 +2265,7 @@
         <v>3.1146271298959947E-2</v>
       </c>
       <c r="Q25" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-0.3436426116838488</v>
       </c>
       <c r="R25" s="5">
@@ -2293,15 +2298,15 @@
         <v>37</v>
       </c>
       <c r="M26" s="5">
-        <f t="shared" ref="M26:Q26" si="19">M8/L8-1</f>
+        <f t="shared" ref="M26:Q26" si="20">M8/L8-1</f>
         <v>1.451878461308187E-2</v>
       </c>
       <c r="N26" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.12053703157273521</v>
       </c>
       <c r="O26" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.15391705069124417</v>
       </c>
       <c r="P26" s="5">
@@ -2309,7 +2314,7 @@
         <v>-8.4550433591967122E-2</v>
       </c>
       <c r="Q26" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2.6424030911130547E-2</v>
       </c>
     </row>

--- a/INTC.xlsx
+++ b/INTC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayanpussurmanov/Finance/financial_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285F2A71-793A-404C-87D8-336420DF1F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC238EB1-492C-BF48-B320-377B540CC2C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="14320" windowHeight="18380" activeTab="1" xr2:uid="{FFDE8198-0A80-C04D-964E-60CE6D882A3C}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="14320" windowHeight="18380" xr2:uid="{FFDE8198-0A80-C04D-964E-60CE6D882A3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>Price</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>Profit margin %</t>
+  </si>
+  <si>
+    <t>Q125</t>
   </si>
 </sst>
 </file>
@@ -606,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A25CBCAB-95B0-CA45-9960-54718EF86824}">
-  <dimension ref="K1:M15"/>
+  <dimension ref="J1:M20"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -622,7 +625,7 @@
   <sheetData>
     <row r="1" spans="11:13" x14ac:dyDescent="0.2">
       <c r="M1" s="14">
-        <v>45676</v>
+        <v>45688</v>
       </c>
     </row>
     <row r="2" spans="11:13" x14ac:dyDescent="0.2">
@@ -658,8 +661,8 @@
         <v>3</v>
       </c>
       <c r="L5" s="4">
-        <f>8785+15301+12062</f>
-        <v>36148</v>
+        <f>8249+13813+12198</f>
+        <v>34260</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>29</v>
@@ -670,8 +673,8 @@
         <v>4</v>
       </c>
       <c r="L6" s="4">
-        <f>46417+3765</f>
-        <v>50182</v>
+        <f>3792+46282</f>
+        <v>50074</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>29</v>
@@ -683,7 +686,7 @@
       </c>
       <c r="L7" s="4">
         <f>L4-L5+L6</f>
-        <v>100811.56</v>
+        <v>102591.56</v>
       </c>
     </row>
     <row r="10" spans="11:13" x14ac:dyDescent="0.2">
@@ -707,8 +710,8 @@
         <v>33</v>
       </c>
       <c r="L12" s="3">
-        <f>NPV(L11,Model!R18:BU18)+L5-L6</f>
-        <v>164735.87379865421</v>
+        <f>NPV(L11,Model!S18:BV18)+L5-L6</f>
+        <v>164415.33053449396</v>
       </c>
     </row>
     <row r="13" spans="11:13" x14ac:dyDescent="0.2">
@@ -717,44 +720,67 @@
       </c>
       <c r="L13" s="8">
         <f>L12/L3</f>
-        <v>38.195194481487178</v>
+        <v>38.120874225479703</v>
       </c>
     </row>
     <row r="15" spans="11:13" x14ac:dyDescent="0.2">
       <c r="L15" s="5">
         <f>L13/L2-1</f>
-        <v>0.89836950703216578</v>
+        <v>0.89467565733000498</v>
+      </c>
+    </row>
+    <row r="19" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K19" s="14">
+        <v>45676</v>
+      </c>
+      <c r="L19" s="3">
+        <v>38.195194481487178</v>
+      </c>
+    </row>
+    <row r="20" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" s="14">
+        <v>45688</v>
+      </c>
+      <c r="L20" s="3">
+        <v>38.120874225479703</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C483DC-5572-5441-9E7B-FD798376FD96}">
-  <dimension ref="A1:BU34"/>
+  <dimension ref="A1:BV34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S15" sqref="S15"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="25" width="10.83203125" style="1"/>
-    <col min="26" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="26" width="10.83203125" style="1"/>
+    <col min="27" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
@@ -779,50 +805,53 @@
       <c r="J4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="1">
+      <c r="K4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="1">
         <v>2019</v>
       </c>
-      <c r="M4" s="1">
+      <c r="N4" s="1">
         <v>2020</v>
       </c>
-      <c r="N4" s="1">
+      <c r="O4" s="1">
         <v>2021</v>
       </c>
-      <c r="O4" s="1">
+      <c r="P4" s="1">
         <v>2022</v>
       </c>
-      <c r="P4" s="1">
+      <c r="Q4" s="1">
         <v>2023</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="R4" s="1">
         <v>2024</v>
       </c>
-      <c r="R4" s="1">
+      <c r="S4" s="1">
         <v>2025</v>
       </c>
-      <c r="S4" s="1">
+      <c r="T4" s="1">
         <v>2026</v>
       </c>
-      <c r="T4" s="1">
+      <c r="U4" s="1">
         <v>2027</v>
       </c>
-      <c r="U4" s="1">
+      <c r="V4" s="1">
         <v>2028</v>
       </c>
-      <c r="V4" s="1">
+      <c r="W4" s="1">
         <v>2029</v>
       </c>
-      <c r="W4" s="1">
+      <c r="X4" s="1">
         <v>2030</v>
       </c>
-      <c r="X4" s="1">
+      <c r="Y4" s="1">
         <v>2031</v>
       </c>
-      <c r="Y4" s="1">
+      <c r="Z4" s="1">
         <v>2032</v>
       </c>
     </row>
-    <row r="5" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
         <v>13</v>
       </c>
@@ -848,61 +877,64 @@
         <v>13284</v>
       </c>
       <c r="J5" s="10">
-        <v>13830</v>
-      </c>
-      <c r="L5" s="10">
+        <v>14260</v>
+      </c>
+      <c r="K5" s="9">
+        <v>12860</v>
+      </c>
+      <c r="M5" s="10">
         <v>71965</v>
       </c>
-      <c r="M5" s="10">
+      <c r="N5" s="10">
         <v>77867</v>
       </c>
-      <c r="N5" s="10">
+      <c r="O5" s="10">
         <v>79024</v>
       </c>
-      <c r="O5" s="10">
+      <c r="P5" s="10">
         <v>63054</v>
       </c>
-      <c r="P5" s="10">
+      <c r="Q5" s="10">
         <v>54228</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="R5" s="10">
         <f>SUM(G5:J5)</f>
-        <v>52671</v>
-      </c>
-      <c r="R5" s="10">
-        <f>Q5+Q5*R22</f>
-        <v>55831.26</v>
+        <v>53101</v>
       </c>
       <c r="S5" s="10">
-        <f t="shared" ref="S5:Y5" si="0">R5+R5*S22</f>
-        <v>58622.823000000004</v>
+        <f>R5+R5*S22</f>
+        <v>56287.06</v>
       </c>
       <c r="T5" s="10">
-        <f t="shared" si="0"/>
-        <v>60381.507690000006</v>
+        <f t="shared" ref="T5:Z5" si="0">S5+S5*T22</f>
+        <v>59101.413</v>
       </c>
       <c r="U5" s="10">
         <f t="shared" si="0"/>
-        <v>62192.952920700009</v>
+        <v>60874.455390000003</v>
       </c>
       <c r="V5" s="10">
         <f t="shared" si="0"/>
-        <v>64058.741508321007</v>
+        <v>62700.689051699999</v>
       </c>
       <c r="W5" s="10">
         <f t="shared" si="0"/>
-        <v>65980.503753570636</v>
+        <v>64581.709723250999</v>
       </c>
       <c r="X5" s="10">
         <f t="shared" si="0"/>
-        <v>67959.918866177759</v>
+        <v>66519.161014948535</v>
       </c>
       <c r="Y5" s="10">
         <f t="shared" si="0"/>
-        <v>69998.716432163084</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+        <v>68514.735845396994</v>
+      </c>
+      <c r="Z5" s="10">
+        <f t="shared" si="0"/>
+        <v>70570.177920758899</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -916,7 +948,7 @@
         <v>8140</v>
       </c>
       <c r="F6" s="4">
-        <f>P6-SUM(C6:E6)</f>
+        <f>Q6-SUM(C6:E6)</f>
         <v>8359</v>
       </c>
       <c r="G6" s="4">
@@ -929,28 +961,30 @@
         <v>11287</v>
       </c>
       <c r="J6" s="4">
-        <v>10000</v>
-      </c>
-      <c r="L6" s="4">
+        <v>8676</v>
+      </c>
+      <c r="K6" s="1">
+        <v>8560</v>
+      </c>
+      <c r="M6" s="4">
         <v>29825</v>
       </c>
-      <c r="M6" s="4">
+      <c r="N6" s="4">
         <v>34255</v>
       </c>
-      <c r="N6" s="4">
+      <c r="O6" s="4">
         <v>35209</v>
       </c>
-      <c r="O6" s="4">
+      <c r="P6" s="4">
         <v>36188</v>
       </c>
-      <c r="P6" s="4">
+      <c r="Q6" s="4">
         <v>32517</v>
       </c>
-      <c r="Q6" s="4">
-        <f t="shared" ref="Q6:Q17" si="1">SUM(G6:J6)</f>
-        <v>37080</v>
-      </c>
-      <c r="R6" s="4"/>
+      <c r="R6" s="4">
+        <f t="shared" ref="R6:R17" si="1">SUM(G6:J6)</f>
+        <v>35756</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
@@ -958,8 +992,9 @@
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
-    </row>
-    <row r="7" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z6" s="4"/>
+    </row>
+    <row r="7" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="11" t="s">
         <v>15</v>
       </c>
@@ -987,33 +1022,36 @@
       </c>
       <c r="J7" s="12">
         <f>J5-J6</f>
-        <v>3830</v>
-      </c>
-      <c r="L7" s="12">
-        <f>L5-L6</f>
-        <v>42140</v>
+        <v>5584</v>
+      </c>
+      <c r="K7" s="12">
+        <f>K5-K6</f>
+        <v>4300</v>
       </c>
       <c r="M7" s="12">
         <f>M5-M6</f>
+        <v>42140</v>
+      </c>
+      <c r="N7" s="12">
+        <f>N5-N6</f>
         <v>43612</v>
       </c>
-      <c r="N7" s="12">
-        <f t="shared" ref="N7:P7" si="2">N5-N6</f>
+      <c r="O7" s="12">
+        <f t="shared" ref="O7:Q7" si="2">O5-O6</f>
         <v>43815</v>
       </c>
-      <c r="O7" s="12">
+      <c r="P7" s="12">
         <f t="shared" si="2"/>
         <v>26866</v>
       </c>
-      <c r="P7" s="12">
+      <c r="Q7" s="12">
         <f t="shared" si="2"/>
         <v>21711</v>
       </c>
-      <c r="Q7" s="12">
-        <f>Q5-Q6</f>
-        <v>15591</v>
-      </c>
-      <c r="R7" s="12"/>
+      <c r="R7" s="12">
+        <f>R5-R6</f>
+        <v>17345</v>
+      </c>
       <c r="S7" s="12"/>
       <c r="T7" s="12"/>
       <c r="U7" s="12"/>
@@ -1021,8 +1059,9 @@
       <c r="W7" s="12"/>
       <c r="X7" s="12"/>
       <c r="Y7" s="12"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z7" s="12"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
@@ -1036,7 +1075,7 @@
         <v>3870</v>
       </c>
       <c r="F8" s="4">
-        <f>P8-SUM(C8:E8)</f>
+        <f>Q8-SUM(C8:E8)</f>
         <v>3987</v>
       </c>
       <c r="G8" s="4">
@@ -1049,28 +1088,31 @@
         <v>4049</v>
       </c>
       <c r="J8" s="4">
-        <v>3800</v>
-      </c>
-      <c r="L8" s="4">
+        <v>3876</v>
+      </c>
+      <c r="K8" s="4">
+        <f>J8</f>
+        <v>3876</v>
+      </c>
+      <c r="M8" s="4">
         <v>13362</v>
       </c>
-      <c r="M8" s="4">
+      <c r="N8" s="4">
         <v>13556</v>
       </c>
-      <c r="N8" s="4">
+      <c r="O8" s="4">
         <v>15190</v>
       </c>
-      <c r="O8" s="4">
+      <c r="P8" s="4">
         <v>17528</v>
       </c>
-      <c r="P8" s="4">
+      <c r="Q8" s="4">
         <v>16046</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="R8" s="4">
         <f t="shared" si="1"/>
-        <v>16470</v>
-      </c>
-      <c r="R8" s="4"/>
+        <v>16546</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
@@ -1078,8 +1120,9 @@
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="4"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
@@ -1093,7 +1136,7 @@
         <v>1340</v>
       </c>
       <c r="F9" s="4">
-        <f>P9-SUM(C9:E9)</f>
+        <f>Q9-SUM(C9:E9)</f>
         <v>1617</v>
       </c>
       <c r="G9" s="4">
@@ -1106,28 +1149,31 @@
         <v>1383</v>
       </c>
       <c r="J9" s="4">
-        <v>1200</v>
-      </c>
-      <c r="L9" s="4">
+        <v>1239</v>
+      </c>
+      <c r="K9" s="4">
+        <f>J9</f>
+        <v>1239</v>
+      </c>
+      <c r="M9" s="4">
         <v>6350</v>
       </c>
-      <c r="M9" s="4">
+      <c r="N9" s="4">
         <v>6180</v>
       </c>
-      <c r="N9" s="4">
+      <c r="O9" s="4">
         <v>6543</v>
       </c>
-      <c r="O9" s="4">
+      <c r="P9" s="4">
         <v>7002</v>
       </c>
-      <c r="P9" s="4">
+      <c r="Q9" s="4">
         <v>5634</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="R9" s="4">
         <f t="shared" si="1"/>
-        <v>5468</v>
-      </c>
-      <c r="R9" s="4"/>
+        <v>5507</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
@@ -1135,8 +1181,9 @@
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="4"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1150,7 +1197,7 @@
         <v>816</v>
       </c>
       <c r="F10" s="4">
-        <f>P10-SUM(C10:E10)</f>
+        <f>Q10-SUM(C10:E10)</f>
         <v>-1142</v>
       </c>
       <c r="G10" s="1">
@@ -1163,28 +1210,31 @@
         <v>5622</v>
       </c>
       <c r="J10" s="4">
-        <v>0</v>
-      </c>
-      <c r="L10" s="4">
+        <v>57</v>
+      </c>
+      <c r="K10" s="4">
+        <f>J10</f>
+        <v>57</v>
+      </c>
+      <c r="M10" s="4">
         <v>393</v>
       </c>
-      <c r="M10" s="4">
+      <c r="N10" s="4">
         <v>198</v>
       </c>
-      <c r="N10" s="4">
+      <c r="O10" s="4">
         <v>2626</v>
       </c>
-      <c r="O10" s="4">
+      <c r="P10" s="4">
         <v>2</v>
       </c>
-      <c r="P10" s="4">
+      <c r="Q10" s="4">
         <v>-62</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="R10" s="4">
         <f t="shared" si="1"/>
-        <v>6913</v>
-      </c>
-      <c r="R10" s="4"/>
+        <v>6970</v>
+      </c>
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
@@ -1192,8 +1242,9 @@
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
-    </row>
-    <row r="11" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z10" s="4"/>
+    </row>
+    <row r="11" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="11" t="s">
         <v>19</v>
       </c>
@@ -1221,33 +1272,36 @@
       </c>
       <c r="J11" s="12">
         <f>SUM(J8:J10)</f>
-        <v>5000</v>
-      </c>
-      <c r="L11" s="12">
-        <f>SUM(L8:L10)</f>
+        <v>5172</v>
+      </c>
+      <c r="K11" s="12">
+        <f>SUM(K8:K10)</f>
+        <v>5172</v>
+      </c>
+      <c r="M11" s="12">
+        <f>SUM(M8:M10)</f>
         <v>20105</v>
       </c>
-      <c r="M11" s="12">
-        <f t="shared" ref="M11:N11" si="3">SUM(M8:M10)</f>
+      <c r="N11" s="12">
+        <f t="shared" ref="N11:O11" si="3">SUM(N8:N10)</f>
         <v>19934</v>
       </c>
-      <c r="N11" s="12">
+      <c r="O11" s="12">
         <f t="shared" si="3"/>
         <v>24359</v>
       </c>
-      <c r="O11" s="12">
-        <f>SUM(O8:O10)</f>
+      <c r="P11" s="12">
+        <f>SUM(P8:P10)</f>
         <v>24532</v>
       </c>
-      <c r="P11" s="12">
-        <f t="shared" ref="P11" si="4">SUM(P8:P10)</f>
+      <c r="Q11" s="12">
+        <f t="shared" ref="Q11" si="4">SUM(Q8:Q10)</f>
         <v>21618</v>
       </c>
-      <c r="Q11" s="12">
-        <f t="shared" ref="Q11" si="5">SUM(Q8:Q10)</f>
-        <v>28851</v>
-      </c>
-      <c r="R11" s="12"/>
+      <c r="R11" s="12">
+        <f t="shared" ref="R11" si="5">SUM(R8:R10)</f>
+        <v>29023</v>
+      </c>
       <c r="S11" s="12"/>
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
@@ -1255,8 +1309,9 @@
       <c r="W11" s="12"/>
       <c r="X11" s="12"/>
       <c r="Y11" s="12"/>
-    </row>
-    <row r="12" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z11" s="12"/>
+    </row>
+    <row r="12" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>20</v>
       </c>
@@ -1284,33 +1339,36 @@
       </c>
       <c r="J12" s="12">
         <f>J7-J11</f>
-        <v>-1170</v>
-      </c>
-      <c r="L12" s="12">
-        <f>L7-L11</f>
+        <v>412</v>
+      </c>
+      <c r="K12" s="12">
+        <f>K7-K11</f>
+        <v>-872</v>
+      </c>
+      <c r="M12" s="12">
+        <f>M7-M11</f>
         <v>22035</v>
       </c>
-      <c r="M12" s="12">
-        <f t="shared" ref="M12:Q12" si="6">M7-M11</f>
+      <c r="N12" s="12">
+        <f t="shared" ref="N12:R12" si="6">N7-N11</f>
         <v>23678</v>
       </c>
-      <c r="N12" s="12">
+      <c r="O12" s="12">
         <f t="shared" si="6"/>
         <v>19456</v>
       </c>
-      <c r="O12" s="12">
+      <c r="P12" s="12">
         <f t="shared" si="6"/>
         <v>2334</v>
       </c>
-      <c r="P12" s="12">
+      <c r="Q12" s="12">
         <f t="shared" si="6"/>
         <v>93</v>
       </c>
-      <c r="Q12" s="12">
+      <c r="R12" s="12">
         <f t="shared" si="6"/>
-        <v>-13260</v>
-      </c>
-      <c r="R12" s="12"/>
+        <v>-11678</v>
+      </c>
       <c r="S12" s="12"/>
       <c r="T12" s="12"/>
       <c r="U12" s="12"/>
@@ -1318,8 +1376,9 @@
       <c r="W12" s="12"/>
       <c r="X12" s="12"/>
       <c r="Y12" s="12"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="12"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>35</v>
       </c>
@@ -1333,7 +1392,7 @@
         <v>-191</v>
       </c>
       <c r="F13" s="4">
-        <f>P13-SUM(C13:E13)</f>
+        <f>Q13-SUM(C13:E13)</f>
         <v>86</v>
       </c>
       <c r="G13" s="1">
@@ -1346,28 +1405,30 @@
         <v>-159</v>
       </c>
       <c r="J13" s="4">
-        <v>0</v>
-      </c>
-      <c r="L13" s="4">
+        <v>316</v>
+      </c>
+      <c r="K13" s="1">
+        <v>300</v>
+      </c>
+      <c r="M13" s="4">
         <v>1539</v>
       </c>
-      <c r="M13" s="4">
+      <c r="N13" s="4">
         <v>1904</v>
       </c>
-      <c r="N13" s="4">
+      <c r="O13" s="4">
         <v>2729</v>
       </c>
-      <c r="O13" s="4">
+      <c r="P13" s="4">
         <v>4268</v>
       </c>
-      <c r="P13" s="4">
+      <c r="Q13" s="4">
         <v>40</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="R13" s="4">
         <f t="shared" si="1"/>
-        <v>-74</v>
-      </c>
-      <c r="R13" s="4"/>
+        <v>242</v>
+      </c>
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
@@ -1375,8 +1436,9 @@
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="4"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
@@ -1390,7 +1452,7 @@
         <v>147</v>
       </c>
       <c r="F14" s="4">
-        <f>P14-SUM(C14:E14)</f>
+        <f>Q14-SUM(C14:E14)</f>
         <v>117</v>
       </c>
       <c r="G14" s="1">
@@ -1403,28 +1465,30 @@
         <v>130</v>
       </c>
       <c r="J14" s="4">
-        <v>0</v>
-      </c>
-      <c r="L14" s="4">
+        <v>-129</v>
+      </c>
+      <c r="K14" s="1">
+        <v>-120</v>
+      </c>
+      <c r="M14" s="4">
         <v>484</v>
       </c>
-      <c r="M14" s="4">
+      <c r="N14" s="4">
         <v>-504</v>
       </c>
-      <c r="N14" s="4">
+      <c r="O14" s="4">
         <v>-482</v>
       </c>
-      <c r="O14" s="4">
+      <c r="P14" s="4">
         <v>1166</v>
       </c>
-      <c r="P14" s="4">
+      <c r="Q14" s="4">
         <v>629</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="R14" s="4">
         <f t="shared" si="1"/>
-        <v>355</v>
-      </c>
-      <c r="R14" s="4"/>
+        <v>226</v>
+      </c>
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
@@ -1432,8 +1496,9 @@
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
-    </row>
-    <row r="15" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z14" s="4"/>
+    </row>
+    <row r="15" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="11" t="s">
         <v>21</v>
       </c>
@@ -1467,34 +1532,37 @@
       </c>
       <c r="J15" s="12">
         <f t="shared" si="7"/>
-        <v>-1170</v>
-      </c>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12">
-        <f>SUM(L12:L14)</f>
+        <v>599</v>
+      </c>
+      <c r="K15" s="12">
+        <f t="shared" si="7"/>
+        <v>-692</v>
+      </c>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12">
+        <f t="shared" ref="M15:R15" si="8">SUM(M12:M14)</f>
         <v>24058</v>
       </c>
-      <c r="M15" s="12">
-        <f>SUM(M12:M14)</f>
+      <c r="N15" s="12">
+        <f t="shared" si="8"/>
         <v>25078</v>
       </c>
-      <c r="N15" s="12">
-        <f>SUM(N12:N14)</f>
+      <c r="O15" s="12">
+        <f t="shared" si="8"/>
         <v>21703</v>
       </c>
-      <c r="O15" s="12">
-        <f>SUM(O12:O14)</f>
+      <c r="P15" s="12">
+        <f t="shared" si="8"/>
         <v>7768</v>
       </c>
-      <c r="P15" s="12">
-        <f>SUM(P12:P14)</f>
+      <c r="Q15" s="12">
+        <f t="shared" si="8"/>
         <v>762</v>
       </c>
-      <c r="Q15" s="12">
-        <f>SUM(Q12:Q14)</f>
-        <v>-12979</v>
-      </c>
-      <c r="R15" s="12"/>
+      <c r="R15" s="12">
+        <f t="shared" si="8"/>
+        <v>-11210</v>
+      </c>
       <c r="S15" s="12"/>
       <c r="T15" s="12"/>
       <c r="U15" s="12"/>
@@ -1502,8 +1570,9 @@
       <c r="W15" s="12"/>
       <c r="X15" s="12"/>
       <c r="Y15" s="12"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="12"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>22</v>
       </c>
@@ -1517,7 +1586,7 @@
         <v>-362</v>
       </c>
       <c r="F16" s="4">
-        <f>P16-SUM(C16:E16)</f>
+        <f>Q16-SUM(C16:E16)</f>
         <v>128</v>
       </c>
       <c r="G16" s="1">
@@ -1530,28 +1599,30 @@
         <v>7903</v>
       </c>
       <c r="J16" s="4">
-        <v>-1700</v>
-      </c>
-      <c r="L16" s="4">
+        <v>752</v>
+      </c>
+      <c r="K16" s="1">
+        <v>500</v>
+      </c>
+      <c r="M16" s="4">
         <v>3010</v>
       </c>
-      <c r="M16" s="4">
+      <c r="N16" s="4">
         <v>4179</v>
       </c>
-      <c r="N16" s="4">
+      <c r="O16" s="4">
         <v>1835</v>
       </c>
-      <c r="O16" s="4">
+      <c r="P16" s="4">
         <v>-249</v>
       </c>
-      <c r="P16" s="4">
+      <c r="Q16" s="4">
         <v>-913</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="R16" s="4">
         <f t="shared" si="1"/>
-        <v>5571</v>
-      </c>
-      <c r="R16" s="4"/>
+        <v>8023</v>
+      </c>
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
@@ -1559,8 +1630,9 @@
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
-    </row>
-    <row r="17" spans="2:73" x14ac:dyDescent="0.2">
+      <c r="Z16" s="4"/>
+    </row>
+    <row r="17" spans="2:74" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,7 +1646,7 @@
         <v>13</v>
       </c>
       <c r="F17" s="4">
-        <f>P17-SUM(C17:E17)</f>
+        <f>Q17-SUM(C17:E17)</f>
         <v>-9</v>
       </c>
       <c r="G17" s="1">
@@ -1586,9 +1658,11 @@
       <c r="I17" s="4">
         <v>-350</v>
       </c>
-      <c r="J17" s="4"/>
-      <c r="L17" s="4">
-        <v>0</v>
+      <c r="J17" s="4">
+        <v>-27</v>
+      </c>
+      <c r="K17" s="1">
+        <v>-25</v>
       </c>
       <c r="M17" s="4">
         <v>0</v>
@@ -1597,16 +1671,18 @@
         <v>0</v>
       </c>
       <c r="O17" s="4">
+        <v>0</v>
+      </c>
+      <c r="P17" s="4">
         <v>3</v>
       </c>
-      <c r="P17" s="4">
+      <c r="Q17" s="4">
         <v>-14</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="R17" s="4">
         <f t="shared" si="1"/>
-        <v>-450</v>
-      </c>
-      <c r="R17" s="4"/>
+        <v>-477</v>
+      </c>
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
@@ -1614,8 +1690,9 @@
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
       <c r="Y17" s="4"/>
-    </row>
-    <row r="18" spans="2:73" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z17" s="4"/>
+    </row>
+    <row r="18" spans="2:74" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="15" t="s">
         <v>24</v>
       </c>
@@ -1643,258 +1720,262 @@
       </c>
       <c r="J18" s="16">
         <f>J15-J16-J17</f>
-        <v>530</v>
-      </c>
-      <c r="L18" s="16">
-        <f>L15-L16-L17</f>
-        <v>21048</v>
+        <v>-126</v>
+      </c>
+      <c r="K18" s="16">
+        <f>K15-K16-K17</f>
+        <v>-1167</v>
       </c>
       <c r="M18" s="16">
         <f>M15-M16-M17</f>
-        <v>20899</v>
+        <v>21048</v>
       </c>
       <c r="N18" s="16">
         <f>N15-N16-N17</f>
+        <v>20899</v>
+      </c>
+      <c r="O18" s="16">
+        <f>O15-O16-O17</f>
         <v>19868</v>
       </c>
-      <c r="O18" s="16">
-        <f t="shared" ref="O18:Q18" si="8">O15-O16-O17</f>
+      <c r="P18" s="16">
+        <f t="shared" ref="P18:R18" si="9">P15-P16-P17</f>
         <v>8014</v>
       </c>
-      <c r="P18" s="16">
-        <f t="shared" si="8"/>
+      <c r="Q18" s="16">
+        <f t="shared" si="9"/>
         <v>1689</v>
       </c>
-      <c r="Q18" s="16">
-        <f t="shared" si="8"/>
-        <v>-18100</v>
-      </c>
       <c r="R18" s="16">
-        <f>R5*R25</f>
-        <v>5583.1260000000002</v>
+        <f t="shared" si="9"/>
+        <v>-18756</v>
       </c>
       <c r="S18" s="16">
-        <f t="shared" ref="S18:Y18" si="9">S5*S25</f>
-        <v>4103.5976100000007</v>
+        <f>S5*S25</f>
+        <v>5628.7060000000001</v>
       </c>
       <c r="T18" s="16">
-        <f t="shared" si="9"/>
-        <v>6038.1507690000008</v>
+        <f t="shared" ref="T18:Z18" si="10">T5*T25</f>
+        <v>4137.0989100000006</v>
       </c>
       <c r="U18" s="16">
-        <f t="shared" si="9"/>
-        <v>9328.9429381050013</v>
+        <f t="shared" si="10"/>
+        <v>6087.4455390000003</v>
       </c>
       <c r="V18" s="16">
-        <f t="shared" si="9"/>
-        <v>12811.748301664202</v>
+        <f t="shared" si="10"/>
+        <v>9405.1033577549988</v>
       </c>
       <c r="W18" s="16">
-        <f t="shared" si="9"/>
-        <v>16495.125938392659</v>
+        <f t="shared" si="10"/>
+        <v>12916.341944650201</v>
       </c>
       <c r="X18" s="16">
-        <f t="shared" si="9"/>
-        <v>16989.97971654444</v>
+        <f t="shared" si="10"/>
+        <v>16629.790253737134</v>
       </c>
       <c r="Y18" s="16">
-        <f t="shared" si="9"/>
-        <v>17499.679108040771</v>
+        <f t="shared" si="10"/>
+        <v>17128.683961349248</v>
       </c>
       <c r="Z18" s="16">
-        <f>Y18*(1+Main!$L$10)</f>
-        <v>17849.672690201587</v>
+        <f t="shared" si="10"/>
+        <v>17642.544480189725</v>
       </c>
       <c r="AA18" s="16">
         <f>Z18*(1+Main!$L$10)</f>
-        <v>18206.66614400562</v>
+        <v>17995.395369793521</v>
       </c>
       <c r="AB18" s="16">
         <f>AA18*(1+Main!$L$10)</f>
-        <v>18570.799466885732</v>
+        <v>18355.303277189392</v>
       </c>
       <c r="AC18" s="16">
         <f>AB18*(1+Main!$L$10)</f>
-        <v>18942.215456223446</v>
+        <v>18722.409342733179</v>
       </c>
       <c r="AD18" s="16">
         <f>AC18*(1+Main!$L$10)</f>
-        <v>19321.059765347916</v>
+        <v>19096.857529587844</v>
       </c>
       <c r="AE18" s="16">
         <f>AD18*(1+Main!$L$10)</f>
-        <v>19707.480960654873</v>
+        <v>19478.794680179602</v>
       </c>
       <c r="AF18" s="16">
         <f>AE18*(1+Main!$L$10)</f>
-        <v>20101.630579867971</v>
+        <v>19868.370573783195</v>
       </c>
       <c r="AG18" s="16">
         <f>AF18*(1+Main!$L$10)</f>
-        <v>20503.66319146533</v>
+        <v>20265.73798525886</v>
       </c>
       <c r="AH18" s="16">
         <f>AG18*(1+Main!$L$10)</f>
-        <v>20913.736455294638</v>
+        <v>20671.052744964039</v>
       </c>
       <c r="AI18" s="16">
         <f>AH18*(1+Main!$L$10)</f>
-        <v>21332.011184400533</v>
+        <v>21084.473799863321</v>
       </c>
       <c r="AJ18" s="16">
         <f>AI18*(1+Main!$L$10)</f>
-        <v>21758.651408088543</v>
+        <v>21506.163275860588</v>
       </c>
       <c r="AK18" s="16">
         <f>AJ18*(1+Main!$L$10)</f>
-        <v>22193.824436250314</v>
+        <v>21936.286541377802</v>
       </c>
       <c r="AL18" s="16">
         <f>AK18*(1+Main!$L$10)</f>
-        <v>22637.700924975321</v>
+        <v>22375.012272205357</v>
       </c>
       <c r="AM18" s="16">
         <f>AL18*(1+Main!$L$10)</f>
-        <v>23090.454943474826</v>
+        <v>22822.512517649466</v>
       </c>
       <c r="AN18" s="16">
         <f>AM18*(1+Main!$L$10)</f>
-        <v>23552.264042344323</v>
+        <v>23278.962768002457</v>
       </c>
       <c r="AO18" s="16">
         <f>AN18*(1+Main!$L$10)</f>
-        <v>24023.30932319121</v>
+        <v>23744.542023362508</v>
       </c>
       <c r="AP18" s="16">
         <f>AO18*(1+Main!$L$10)</f>
-        <v>24503.775509655035</v>
+        <v>24219.432863829759</v>
       </c>
       <c r="AQ18" s="16">
         <f>AP18*(1+Main!$L$10)</f>
-        <v>24993.851019848138</v>
+        <v>24703.821521106354</v>
       </c>
       <c r="AR18" s="16">
         <f>AQ18*(1+Main!$L$10)</f>
-        <v>25493.7280402451</v>
+        <v>25197.897951528481</v>
       </c>
       <c r="AS18" s="16">
         <f>AR18*(1+Main!$L$10)</f>
-        <v>26003.602601050003</v>
+        <v>25701.85591055905</v>
       </c>
       <c r="AT18" s="16">
         <f>AS18*(1+Main!$L$10)</f>
-        <v>26523.674653071004</v>
+        <v>26215.893028770231</v>
       </c>
       <c r="AU18" s="16">
         <f>AT18*(1+Main!$L$10)</f>
-        <v>27054.148146132426</v>
+        <v>26740.210889345635</v>
       </c>
       <c r="AV18" s="16">
         <f>AU18*(1+Main!$L$10)</f>
-        <v>27595.231109055076</v>
+        <v>27275.015107132549</v>
       </c>
       <c r="AW18" s="16">
         <f>AV18*(1+Main!$L$10)</f>
-        <v>28147.135731236176</v>
+        <v>27820.515409275202</v>
       </c>
       <c r="AX18" s="16">
         <f>AW18*(1+Main!$L$10)</f>
-        <v>28710.078445860901</v>
+        <v>28376.925717460705</v>
       </c>
       <c r="AY18" s="16">
         <f>AX18*(1+Main!$L$10)</f>
-        <v>29284.28001477812</v>
+        <v>28944.464231809918</v>
       </c>
       <c r="AZ18" s="16">
         <f>AY18*(1+Main!$L$10)</f>
-        <v>29869.965615073685</v>
+        <v>29523.353516446117</v>
       </c>
       <c r="BA18" s="16">
         <f>AZ18*(1+Main!$L$10)</f>
-        <v>30467.364927375158</v>
+        <v>30113.82058677504</v>
       </c>
       <c r="BB18" s="16">
         <f>BA18*(1+Main!$L$10)</f>
-        <v>31076.712225922663</v>
+        <v>30716.09699851054</v>
       </c>
       <c r="BC18" s="16">
         <f>BB18*(1+Main!$L$10)</f>
-        <v>31698.246470441118</v>
+        <v>31330.418938480751</v>
       </c>
       <c r="BD18" s="16">
         <f>BC18*(1+Main!$L$10)</f>
-        <v>32332.211399849941</v>
+        <v>31957.027317250366</v>
       </c>
       <c r="BE18" s="16">
         <f>BD18*(1+Main!$L$10)</f>
-        <v>32978.85562784694</v>
+        <v>32596.167863595372</v>
       </c>
       <c r="BF18" s="16">
         <f>BE18*(1+Main!$L$10)</f>
-        <v>33638.432740403878</v>
+        <v>33248.091220867282</v>
       </c>
       <c r="BG18" s="16">
         <f>BF18*(1+Main!$L$10)</f>
-        <v>34311.201395211952</v>
+        <v>33913.053045284629</v>
       </c>
       <c r="BH18" s="16">
         <f>BG18*(1+Main!$L$10)</f>
-        <v>34997.42542311619</v>
+        <v>34591.314106190322</v>
       </c>
       <c r="BI18" s="16">
         <f>BH18*(1+Main!$L$10)</f>
-        <v>35697.373931578513</v>
+        <v>35283.140388314132</v>
       </c>
       <c r="BJ18" s="16">
         <f>BI18*(1+Main!$L$10)</f>
-        <v>36411.321410210083</v>
+        <v>35988.803196080415</v>
       </c>
       <c r="BK18" s="16">
         <f>BJ18*(1+Main!$L$10)</f>
-        <v>37139.547838414284</v>
+        <v>36708.579260002021</v>
       </c>
       <c r="BL18" s="16">
         <f>BK18*(1+Main!$L$10)</f>
-        <v>37882.338795182572</v>
+        <v>37442.750845202063</v>
       </c>
       <c r="BM18" s="16">
         <f>BL18*(1+Main!$L$10)</f>
-        <v>38639.985571086225</v>
+        <v>38191.605862106102</v>
       </c>
       <c r="BN18" s="16">
         <f>BM18*(1+Main!$L$10)</f>
-        <v>39412.785282507954</v>
+        <v>38955.437979348222</v>
       </c>
       <c r="BO18" s="16">
         <f>BN18*(1+Main!$L$10)</f>
-        <v>40201.040988158114</v>
+        <v>39734.546738935191</v>
       </c>
       <c r="BP18" s="16">
         <f>BO18*(1+Main!$L$10)</f>
-        <v>41005.06180792128</v>
+        <v>40529.237673713898</v>
       </c>
       <c r="BQ18" s="16">
         <f>BP18*(1+Main!$L$10)</f>
-        <v>41825.163044079709</v>
+        <v>41339.822427188177</v>
       </c>
       <c r="BR18" s="16">
         <f>BQ18*(1+Main!$L$10)</f>
-        <v>42661.666304961305</v>
+        <v>42166.61887573194</v>
       </c>
       <c r="BS18" s="16">
         <f>BR18*(1+Main!$L$10)</f>
-        <v>43514.899631060529</v>
+        <v>43009.951253246581</v>
       </c>
       <c r="BT18" s="16">
         <f>BS18*(1+Main!$L$10)</f>
-        <v>44385.197623681743</v>
+        <v>43870.150278311514</v>
       </c>
       <c r="BU18" s="16">
         <f>BT18*(1+Main!$L$10)</f>
-        <v>45272.901576155382</v>
-      </c>
-    </row>
-    <row r="19" spans="2:73" s="11" customFormat="1" x14ac:dyDescent="0.2">
+        <v>44747.553283877744</v>
+      </c>
+      <c r="BV18" s="16">
+        <f>BU18*(1+Main!$L$10)</f>
+        <v>45642.504349555296</v>
+      </c>
+    </row>
+    <row r="19" spans="2:74" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="11" t="s">
         <v>25</v>
       </c>
@@ -1922,45 +2003,49 @@
       </c>
       <c r="J19" s="13">
         <f>J18/J20</f>
-        <v>0.12348555452003727</v>
-      </c>
-      <c r="L19" s="13">
-        <f>L18/L20</f>
+        <v>-2.9173419773095625E-2</v>
+      </c>
+      <c r="K19" s="13">
+        <f>K18/K20</f>
+        <v>-0.26766055045871562</v>
+      </c>
+      <c r="M19" s="13">
+        <f>M18/M20</f>
         <v>4.7055667337357479</v>
       </c>
-      <c r="M19" s="13">
-        <f t="shared" ref="M19:P19" si="10">M18/M20</f>
+      <c r="N19" s="13">
+        <f t="shared" ref="N19:Q19" si="11">N18/N20</f>
         <v>4.9383270321361055</v>
       </c>
-      <c r="N19" s="13">
-        <f t="shared" si="10"/>
+      <c r="O19" s="13">
+        <f t="shared" si="11"/>
         <v>4.8577017114914423</v>
       </c>
-      <c r="O19" s="13">
-        <f t="shared" si="10"/>
+      <c r="P19" s="13">
+        <f t="shared" si="11"/>
         <v>1.9437302934756246</v>
       </c>
-      <c r="P19" s="13">
-        <f t="shared" si="10"/>
+      <c r="Q19" s="13">
+        <f t="shared" si="11"/>
         <v>0.400997150997151</v>
-      </c>
-      <c r="Q19" s="13">
-        <f>Q18/Q20</f>
-        <v>-4.217148182665424</v>
       </c>
       <c r="R19" s="13">
         <f>R18/R20</f>
-        <v>1.3008215284249767</v>
-      </c>
-      <c r="S19" s="12"/>
+        <v>-4.3822429906542055</v>
+      </c>
+      <c r="S19" s="13">
+        <f>S18/S20</f>
+        <v>1.3151182242990656</v>
+      </c>
       <c r="T19" s="12"/>
       <c r="U19" s="12"/>
       <c r="V19" s="12"/>
       <c r="W19" s="12"/>
       <c r="X19" s="12"/>
       <c r="Y19" s="12"/>
-    </row>
-    <row r="20" spans="2:73" x14ac:dyDescent="0.2">
+      <c r="Z19" s="12"/>
+    </row>
+    <row r="20" spans="2:74" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>1</v>
       </c>
@@ -1974,7 +2059,7 @@
         <v>4229</v>
       </c>
       <c r="F20" s="4">
-        <f>P20</f>
+        <f>Q20</f>
         <v>4212</v>
       </c>
       <c r="G20" s="4">
@@ -1987,50 +2072,51 @@
         <v>4292</v>
       </c>
       <c r="J20" s="4">
-        <f>I20</f>
-        <v>4292</v>
-      </c>
-      <c r="L20" s="4">
+        <v>4319</v>
+      </c>
+      <c r="K20" s="4">
+        <v>4360</v>
+      </c>
+      <c r="M20" s="4">
         <v>4473</v>
       </c>
-      <c r="M20" s="4">
+      <c r="N20" s="4">
         <v>4232</v>
       </c>
-      <c r="N20" s="4">
+      <c r="O20" s="4">
         <v>4090</v>
       </c>
-      <c r="O20" s="4">
+      <c r="P20" s="4">
         <v>4123</v>
       </c>
-      <c r="P20" s="4">
+      <c r="Q20" s="4">
         <v>4212</v>
       </c>
-      <c r="Q20" s="4">
-        <f>J20</f>
-        <v>4292</v>
-      </c>
       <c r="R20" s="4">
-        <f>Q20</f>
-        <v>4292</v>
-      </c>
-      <c r="S20" s="4"/>
+        <v>4280</v>
+      </c>
+      <c r="S20" s="4">
+        <f>R20</f>
+        <v>4280</v>
+      </c>
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
       <c r="W20" s="4"/>
       <c r="X20" s="4"/>
       <c r="Y20" s="4"/>
-    </row>
-    <row r="22" spans="2:73" x14ac:dyDescent="0.2">
+      <c r="Z20" s="4"/>
+    </row>
+    <row r="22" spans="2:74" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G22" s="6">
-        <f t="shared" ref="G22:H22" si="11">G5/C5-1</f>
+        <f t="shared" ref="G22:H22" si="12">G5/C5-1</f>
         <v>8.6128894579598825E-2</v>
       </c>
       <c r="H22" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-8.9582207120241231E-3</v>
       </c>
       <c r="I22" s="6">
@@ -2039,36 +2125,37 @@
       </c>
       <c r="J22" s="6">
         <f>J5/F5-1</f>
-        <v>-0.10229780604959104</v>
-      </c>
-      <c r="M22" s="5">
-        <f t="shared" ref="M22:O22" si="12">M5/L5-1</f>
+        <v>-7.4386602622354969E-2</v>
+      </c>
+      <c r="K22" s="6">
+        <f>K5/G5-1</f>
+        <v>1.0688462747563632E-2</v>
+      </c>
+      <c r="N22" s="5">
+        <f t="shared" ref="N22:P22" si="13">N5/M5-1</f>
         <v>8.2012089210032668E-2</v>
       </c>
-      <c r="N22" s="5">
-        <f t="shared" si="12"/>
+      <c r="O22" s="5">
+        <f t="shared" si="13"/>
         <v>1.4858669269395275E-2</v>
       </c>
-      <c r="O22" s="5">
-        <f t="shared" si="12"/>
+      <c r="P22" s="5">
+        <f t="shared" si="13"/>
         <v>-0.20209050415063778</v>
-      </c>
-      <c r="P22" s="5">
-        <f>P5/O5-1</f>
-        <v>-0.13997525930155108</v>
       </c>
       <c r="Q22" s="5">
         <f>Q5/P5-1</f>
-        <v>-2.8712104447886744E-2</v>
-      </c>
-      <c r="R22" s="7">
+        <v>-0.13997525930155108</v>
+      </c>
+      <c r="R22" s="5">
+        <f>R5/Q5-1</f>
+        <v>-2.0782621523935951E-2</v>
+      </c>
+      <c r="S22" s="7">
         <v>0.06</v>
       </c>
-      <c r="S22" s="7">
+      <c r="T22" s="7">
         <v>0.05</v>
-      </c>
-      <c r="T22" s="7">
-        <v>0.03</v>
       </c>
       <c r="U22" s="7">
         <v>0.03</v>
@@ -2085,33 +2172,36 @@
       <c r="Y22" s="7">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="23" spans="2:73" x14ac:dyDescent="0.2">
+      <c r="Z22" s="7">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="23" spans="2:74" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="6">
-        <f t="shared" ref="C23:F23" si="13">C7/C5</f>
+        <f t="shared" ref="C23:F23" si="14">C7/C5</f>
         <v>0.34212548015364919</v>
       </c>
       <c r="D23" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.35817437639972199</v>
       </c>
       <c r="E23" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.42506003672835146</v>
       </c>
       <c r="F23" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.45741918732961184</v>
       </c>
       <c r="G23" s="6">
-        <f t="shared" ref="G23:H23" si="14">G7/G5</f>
+        <f t="shared" ref="G23:H23" si="15">G7/G5</f>
         <v>0.41001257466205598</v>
       </c>
       <c r="H23" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.35432089145172602</v>
       </c>
       <c r="I23" s="6">
@@ -2120,55 +2210,59 @@
       </c>
       <c r="J23" s="6">
         <f>J7/J5</f>
-        <v>0.2769342010122921</v>
-      </c>
-      <c r="L23" s="5">
-        <f t="shared" ref="L23:O23" si="15">L7/L5</f>
+        <v>0.39158485273492288</v>
+      </c>
+      <c r="K23" s="6">
+        <f>K7/K5</f>
+        <v>0.33437013996889581</v>
+      </c>
+      <c r="M23" s="5">
+        <f t="shared" ref="M23:P23" si="16">M7/M5</f>
         <v>0.5855624261793928</v>
       </c>
-      <c r="M23" s="5">
-        <f t="shared" si="15"/>
+      <c r="N23" s="5">
+        <f t="shared" si="16"/>
         <v>0.5600832188218372</v>
       </c>
-      <c r="N23" s="5">
-        <f t="shared" si="15"/>
+      <c r="O23" s="5">
+        <f t="shared" si="16"/>
         <v>0.5544518121077141</v>
       </c>
-      <c r="O23" s="5">
-        <f t="shared" si="15"/>
+      <c r="P23" s="5">
+        <f t="shared" si="16"/>
         <v>0.42607923367272499</v>
-      </c>
-      <c r="P23" s="5">
-        <f>P7/P5</f>
-        <v>0.40036512502766097</v>
       </c>
       <c r="Q23" s="5">
         <f>Q7/Q5</f>
-        <v>0.29600729053938601</v>
-      </c>
-    </row>
-    <row r="24" spans="2:73" x14ac:dyDescent="0.2">
+        <v>0.40036512502766097</v>
+      </c>
+      <c r="R23" s="5">
+        <f>R7/R5</f>
+        <v>0.32664168283083184</v>
+      </c>
+    </row>
+    <row r="24" spans="2:74" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C24" s="6">
-        <f t="shared" ref="C24:G24" si="16">C16/C15</f>
+        <f t="shared" ref="C24:G24" si="17">C16/C15</f>
         <v>-1.390328151986183</v>
       </c>
       <c r="D24" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2.8051470588235294</v>
       </c>
       <c r="E24" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>6.9615384615384617</v>
       </c>
       <c r="F24" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4.5911047345767578E-2</v>
       </c>
       <c r="G24" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.39221140472878996</v>
       </c>
       <c r="H24" s="6">
@@ -2181,55 +2275,59 @@
       </c>
       <c r="J24" s="6">
         <f>J16/J15</f>
-        <v>1.4529914529914529</v>
-      </c>
-      <c r="L24" s="5">
-        <f t="shared" ref="L24:O24" si="17">L16/L15</f>
+        <v>1.2554257095158599</v>
+      </c>
+      <c r="K24" s="6">
+        <f>K16/K15</f>
+        <v>-0.7225433526011561</v>
+      </c>
+      <c r="M24" s="5">
+        <f t="shared" ref="M24:P24" si="18">M16/M15</f>
         <v>0.12511430709119628</v>
       </c>
-      <c r="M24" s="5">
-        <f t="shared" si="17"/>
+      <c r="N24" s="5">
+        <f t="shared" si="18"/>
         <v>0.16664008294122337</v>
       </c>
-      <c r="N24" s="5">
-        <f t="shared" si="17"/>
+      <c r="O24" s="5">
+        <f t="shared" si="18"/>
         <v>8.4550522969174771E-2</v>
       </c>
-      <c r="O24" s="5">
-        <f t="shared" si="17"/>
+      <c r="P24" s="5">
+        <f t="shared" si="18"/>
         <v>-3.2054582904222452E-2</v>
-      </c>
-      <c r="P24" s="5">
-        <f>P16/P15</f>
-        <v>-1.1981627296587927</v>
       </c>
       <c r="Q24" s="5">
         <f>Q16/Q15</f>
-        <v>-0.42923183604283843</v>
-      </c>
-    </row>
-    <row r="25" spans="2:73" x14ac:dyDescent="0.2">
+        <v>-1.1981627296587927</v>
+      </c>
+      <c r="R24" s="5">
+        <f>R16/R15</f>
+        <v>-0.71570026761819805</v>
+      </c>
+    </row>
+    <row r="25" spans="2:74" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C25" s="6">
-        <f t="shared" ref="C25:G25" si="18">C18/C5</f>
+        <f t="shared" ref="C25:G25" si="19">C18/C5</f>
         <v>-0.23542466922748612</v>
       </c>
       <c r="D25" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.114371766159549</v>
       </c>
       <c r="E25" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.097753920045204E-2</v>
       </c>
       <c r="F25" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.1732441905751006</v>
       </c>
       <c r="G25" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-2.9943414020748193E-2</v>
       </c>
       <c r="H25" s="6">
@@ -2242,49 +2340,50 @@
       </c>
       <c r="J25" s="6">
         <f>J18/J5</f>
-        <v>3.8322487346348515E-2</v>
-      </c>
-      <c r="L25" s="5">
-        <f t="shared" ref="L25:Q25" si="19">L18/L5</f>
+        <v>-8.8359046283309952E-3</v>
+      </c>
+      <c r="K25" s="6">
+        <f>K18/K5</f>
+        <v>-9.0746500777604974E-2</v>
+      </c>
+      <c r="M25" s="5">
+        <f t="shared" ref="M25:R25" si="20">M18/M5</f>
         <v>0.2924755089279511</v>
       </c>
-      <c r="M25" s="5">
-        <f t="shared" si="19"/>
+      <c r="N25" s="5">
+        <f t="shared" si="20"/>
         <v>0.26839354283586114</v>
       </c>
-      <c r="N25" s="5">
-        <f t="shared" si="19"/>
+      <c r="O25" s="5">
+        <f t="shared" si="20"/>
         <v>0.25141729094958493</v>
       </c>
-      <c r="O25" s="5">
-        <f t="shared" si="19"/>
+      <c r="P25" s="5">
+        <f t="shared" si="20"/>
         <v>0.1270974085704317</v>
       </c>
-      <c r="P25" s="5">
-        <f>P18/P5</f>
+      <c r="Q25" s="5">
+        <f>Q18/Q5</f>
         <v>3.1146271298959947E-2</v>
       </c>
-      <c r="Q25" s="5">
-        <f t="shared" si="19"/>
-        <v>-0.3436426116838488</v>
-      </c>
       <c r="R25" s="5">
+        <f t="shared" si="20"/>
+        <v>-0.35321368712453627</v>
+      </c>
+      <c r="S25" s="5">
         <v>0.1</v>
       </c>
-      <c r="S25" s="5">
+      <c r="T25" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T25" s="5">
+      <c r="U25" s="5">
         <v>0.1</v>
       </c>
-      <c r="U25" s="5">
+      <c r="V25" s="5">
         <v>0.15</v>
       </c>
-      <c r="V25" s="5">
+      <c r="W25" s="5">
         <v>0.2</v>
-      </c>
-      <c r="W25" s="5">
-        <v>0.25</v>
       </c>
       <c r="X25" s="5">
         <v>0.25</v>
@@ -2292,45 +2391,48 @@
       <c r="Y25" s="5">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="26" spans="2:73" x14ac:dyDescent="0.2">
+      <c r="Z25" s="5">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:74" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M26" s="5">
-        <f t="shared" ref="M26:Q26" si="20">M8/L8-1</f>
+      <c r="N26" s="5">
+        <f t="shared" ref="N26:R26" si="21">N8/M8-1</f>
         <v>1.451878461308187E-2</v>
       </c>
-      <c r="N26" s="5">
-        <f t="shared" si="20"/>
+      <c r="O26" s="5">
+        <f t="shared" si="21"/>
         <v>0.12053703157273521</v>
       </c>
-      <c r="O26" s="5">
-        <f t="shared" si="20"/>
+      <c r="P26" s="5">
+        <f t="shared" si="21"/>
         <v>0.15391705069124417</v>
       </c>
-      <c r="P26" s="5">
-        <f>P8/O8-1</f>
+      <c r="Q26" s="5">
+        <f>Q8/P8-1</f>
         <v>-8.4550433591967122E-2</v>
       </c>
-      <c r="Q26" s="5">
-        <f t="shared" si="20"/>
-        <v>2.6424030911130547E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="2:73" x14ac:dyDescent="0.2">
+      <c r="R26" s="5">
+        <f t="shared" si="21"/>
+        <v>3.116041381029544E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:74" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="2:73" x14ac:dyDescent="0.2">
-      <c r="Z30" s="3"/>
-    </row>
-    <row r="33" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z33" s="3"/>
-    </row>
-    <row r="34" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z34" s="3"/>
+    <row r="30" spans="2:74" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3"/>
+    </row>
+    <row r="33" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3"/>
+    </row>
+    <row r="34" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
